--- a/NN_results/TFC_NN_results.xlsx
+++ b/NN_results/TFC_NN_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C348"/>
+  <dimension ref="A1:C394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>45.56699371337891</v>
+        <v>36.17448425292969</v>
       </c>
       <c r="C2" t="n">
-        <v>46.54999923706055</v>
+        <v>34.41999816894531</v>
       </c>
     </row>
     <row r="3">
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>46.30556106567383</v>
+        <v>34.99123001098633</v>
       </c>
       <c r="C3" t="n">
-        <v>46.95999908447266</v>
+        <v>33.06000137329102</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46.82659530639648</v>
+        <v>33.53631210327148</v>
       </c>
       <c r="C4" t="n">
-        <v>46.04999923706055</v>
+        <v>31.6299991607666</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46.32861709594727</v>
+        <v>32.1713981628418</v>
       </c>
       <c r="C5" t="n">
-        <v>46.22000122070312</v>
+        <v>32.06000137329102</v>
       </c>
     </row>
     <row r="6">
@@ -495,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46.29588317871094</v>
+        <v>32.24098587036133</v>
       </c>
       <c r="C6" t="n">
-        <v>46.68000030517578</v>
+        <v>31.35000038146973</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46.62192535400391</v>
+        <v>31.8383674621582</v>
       </c>
       <c r="C7" t="n">
-        <v>45.25</v>
+        <v>34.15000152587891</v>
       </c>
     </row>
     <row r="8">
@@ -517,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45.69771194458008</v>
+        <v>33.85121917724609</v>
       </c>
       <c r="C8" t="n">
-        <v>46.02000045776367</v>
+        <v>32.34000015258789</v>
       </c>
     </row>
     <row r="9">
@@ -528,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>45.96242904663086</v>
+        <v>33.04969024658203</v>
       </c>
       <c r="C9" t="n">
-        <v>45.66999816894531</v>
+        <v>33.77000045776367</v>
       </c>
     </row>
     <row r="10">
@@ -539,10 +539,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>45.80842971801758</v>
+        <v>33.7446174621582</v>
       </c>
       <c r="C10" t="n">
-        <v>46.61000061035156</v>
+        <v>33.47000122070312</v>
       </c>
     </row>
     <row r="11">
@@ -550,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>46.41958236694336</v>
+        <v>33.80187225341797</v>
       </c>
       <c r="C11" t="n">
-        <v>47.40999984741211</v>
+        <v>33.29000091552734</v>
       </c>
     </row>
     <row r="12">
@@ -561,10 +561,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>47.17909622192383</v>
+        <v>33.60018157958984</v>
       </c>
       <c r="C12" t="n">
-        <v>47.65000152587891</v>
+        <v>36.18999862670898</v>
       </c>
     </row>
     <row r="13">
@@ -572,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47.57647705078125</v>
+        <v>35.79264450073242</v>
       </c>
       <c r="C13" t="n">
-        <v>46.70000076293945</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="14">
@@ -583,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.00835800170898</v>
+        <v>39.03353118896484</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31000137329102</v>
+        <v>38.15000152587891</v>
       </c>
     </row>
     <row r="15">
@@ -594,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.27596664428711</v>
+        <v>38.67747116088867</v>
       </c>
       <c r="C15" t="n">
-        <v>48.65000152587891</v>
+        <v>36.77999877929688</v>
       </c>
     </row>
     <row r="16">
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>48.31484603881836</v>
+        <v>37.22231292724609</v>
       </c>
       <c r="C16" t="n">
-        <v>48.72000122070312</v>
+        <v>38.06000137329102</v>
       </c>
     </row>
     <row r="17">
@@ -616,10 +616,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>48.66885375976562</v>
+        <v>37.84063339233398</v>
       </c>
       <c r="C17" t="n">
-        <v>50.36000061035156</v>
+        <v>37.61000061035156</v>
       </c>
     </row>
     <row r="18">
@@ -627,10 +627,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>49.92046356201172</v>
+        <v>37.79709243774414</v>
       </c>
       <c r="C18" t="n">
-        <v>51.2400016784668</v>
+        <v>39.97000122070312</v>
       </c>
     </row>
     <row r="19">
@@ -638,10 +638,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>50.89431762695312</v>
+        <v>39.55044174194336</v>
       </c>
       <c r="C19" t="n">
-        <v>52.13000106811523</v>
+        <v>41.86999893188477</v>
       </c>
     </row>
     <row r="20">
@@ -649,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>51.77251434326172</v>
+        <v>41.58369827270508</v>
       </c>
       <c r="C20" t="n">
-        <v>52.79000091552734</v>
+        <v>44.31000137329102</v>
       </c>
     </row>
     <row r="21">
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>52.45922470092773</v>
+        <v>43.92324829101562</v>
       </c>
       <c r="C21" t="n">
-        <v>53.06000137329102</v>
+        <v>46.36999893188477</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +671,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>52.82061386108398</v>
+        <v>46.04621505737305</v>
       </c>
       <c r="C22" t="n">
-        <v>52.91999816894531</v>
+        <v>44.68000030517578</v>
       </c>
     </row>
     <row r="23">
@@ -682,10 +682,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>52.8145866394043</v>
+        <v>45.25439071655273</v>
       </c>
       <c r="C23" t="n">
-        <v>52.7599983215332</v>
+        <v>41.5099983215332</v>
       </c>
     </row>
     <row r="24">
@@ -693,10 +693,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.70033645629883</v>
+        <v>42.37847518920898</v>
       </c>
       <c r="C24" t="n">
-        <v>53.11000061035156</v>
+        <v>37.47999954223633</v>
       </c>
     </row>
     <row r="25">
@@ -704,10 +704,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>52.90965270996094</v>
+        <v>38.38622283935547</v>
       </c>
       <c r="C25" t="n">
-        <v>52.79000091552734</v>
+        <v>39.47000122070312</v>
       </c>
     </row>
     <row r="26">
@@ -715,10 +715,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52.74233245849609</v>
+        <v>38.87839126586914</v>
       </c>
       <c r="C26" t="n">
-        <v>52.41999816894531</v>
+        <v>39.82999801635742</v>
       </c>
     </row>
     <row r="27">
@@ -726,10 +726,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.44023513793945</v>
+        <v>39.70418167114258</v>
       </c>
       <c r="C27" t="n">
-        <v>52.56999969482422</v>
+        <v>41.06999969482422</v>
       </c>
     </row>
     <row r="28">
@@ -737,10 +737,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52.46792221069336</v>
+        <v>40.83509826660156</v>
       </c>
       <c r="C28" t="n">
-        <v>52.04000091552734</v>
+        <v>40.27999877929688</v>
       </c>
     </row>
     <row r="29">
@@ -748,10 +748,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>52.10843276977539</v>
+        <v>40.51383972167969</v>
       </c>
       <c r="C29" t="n">
-        <v>52.84999847412109</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="30">
@@ -759,10 +759,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>52.57460021972656</v>
+        <v>40.48188400268555</v>
       </c>
       <c r="C30" t="n">
-        <v>52.91999816894531</v>
+        <v>39.34000015258789</v>
       </c>
     </row>
     <row r="31">
@@ -770,10 +770,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>52.74562835693359</v>
+        <v>39.61795425415039</v>
       </c>
       <c r="C31" t="n">
-        <v>53.45999908447266</v>
+        <v>39.52999877929688</v>
       </c>
     </row>
     <row r="32">
@@ -781,10 +781,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>53.15335083007812</v>
+        <v>39.48777770996094</v>
       </c>
       <c r="C32" t="n">
-        <v>53.36999893188477</v>
+        <v>40.03999710083008</v>
       </c>
     </row>
     <row r="33">
@@ -792,10 +792,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>53.19742965698242</v>
+        <v>39.93438339233398</v>
       </c>
       <c r="C33" t="n">
-        <v>52.34000015258789</v>
+        <v>37.65999984741211</v>
       </c>
     </row>
     <row r="34">
@@ -803,10 +803,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>52.49862670898438</v>
+        <v>38.2261962890625</v>
       </c>
       <c r="C34" t="n">
-        <v>51.06999969482422</v>
+        <v>38.54999923706055</v>
       </c>
     </row>
     <row r="35">
@@ -814,10 +814,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>51.42789077758789</v>
+        <v>38.34460830688477</v>
       </c>
       <c r="C35" t="n">
-        <v>50.81000137329102</v>
+        <v>35.95000076293945</v>
       </c>
     </row>
     <row r="36">
@@ -825,10 +825,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>50.97279357910156</v>
+        <v>36.54409408569336</v>
       </c>
       <c r="C36" t="n">
-        <v>51.65999984741211</v>
+        <v>36.7400016784668</v>
       </c>
     </row>
     <row r="37">
@@ -836,10 +836,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>51.45884704589844</v>
+        <v>36.58229827880859</v>
       </c>
       <c r="C37" t="n">
-        <v>51.59999847412109</v>
+        <v>37.54999923706055</v>
       </c>
     </row>
     <row r="38">
@@ -847,10 +847,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>51.54384613037109</v>
+        <v>37.41428756713867</v>
       </c>
       <c r="C38" t="n">
-        <v>50.97999954223633</v>
+        <v>36.40999984741211</v>
       </c>
     </row>
     <row r="39">
@@ -858,10 +858,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>51.12569808959961</v>
+        <v>36.74597930908203</v>
       </c>
       <c r="C39" t="n">
-        <v>50.9900016784668</v>
+        <v>36.41999816894531</v>
       </c>
     </row>
     <row r="40">
@@ -869,10 +869,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>51.02538681030273</v>
+        <v>36.48933410644531</v>
       </c>
       <c r="C40" t="n">
-        <v>51.33000183105469</v>
+        <v>36.68999862670898</v>
       </c>
     </row>
     <row r="41">
@@ -880,10 +880,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>51.24290084838867</v>
+        <v>36.70229721069336</v>
       </c>
       <c r="C41" t="n">
-        <v>52</v>
+        <v>35.29999923706055</v>
       </c>
     </row>
     <row r="42">
@@ -891,10 +891,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>51.76769638061523</v>
+        <v>35.70209121704102</v>
       </c>
       <c r="C42" t="n">
-        <v>51.97999954223633</v>
+        <v>35.31999969482422</v>
       </c>
     </row>
     <row r="43">
@@ -902,10 +902,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>51.89085388183594</v>
+        <v>35.409423828125</v>
       </c>
       <c r="C43" t="n">
-        <v>52.7400016784668</v>
+        <v>33.61000061035156</v>
       </c>
     </row>
     <row r="44">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>52.44595336914062</v>
+        <v>34.1123161315918</v>
       </c>
       <c r="C44" t="n">
-        <v>52.9900016784668</v>
+        <v>35.20000076293945</v>
       </c>
     </row>
     <row r="45">
@@ -924,10 +924,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>52.76300430297852</v>
+        <v>34.98567962646484</v>
       </c>
       <c r="C45" t="n">
-        <v>52.43999862670898</v>
+        <v>35.61000061035156</v>
       </c>
     </row>
     <row r="46">
@@ -935,10 +935,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>52.46282196044922</v>
+        <v>35.67554473876953</v>
       </c>
       <c r="C46" t="n">
-        <v>52.66999816894531</v>
+        <v>35.18000030517578</v>
       </c>
     </row>
     <row r="47">
@@ -946,10 +946,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>52.54310607910156</v>
+        <v>35.44366836547852</v>
       </c>
       <c r="C47" t="n">
-        <v>53.45000076293945</v>
+        <v>36.93000030517578</v>
       </c>
     </row>
     <row r="48">
@@ -957,10 +957,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>53.09980010986328</v>
+        <v>36.69268798828125</v>
       </c>
       <c r="C48" t="n">
-        <v>53.47000122070312</v>
+        <v>37.22000122070312</v>
       </c>
     </row>
     <row r="49">
@@ -968,10 +968,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>53.25277709960938</v>
+        <v>37.30517196655273</v>
       </c>
       <c r="C49" t="n">
-        <v>53.4900016784668</v>
+        <v>36.29999923706055</v>
       </c>
     </row>
     <row r="50">
@@ -979,10 +979,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>53.30094909667969</v>
+        <v>36.64093017578125</v>
       </c>
       <c r="C50" t="n">
-        <v>53.04999923706055</v>
+        <v>35.72000122070312</v>
       </c>
     </row>
     <row r="51">
@@ -990,10 +990,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>53.01399993896484</v>
+        <v>35.953857421875</v>
       </c>
       <c r="C51" t="n">
-        <v>53.58000183105469</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="52">
@@ -1001,10 +1001,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>53.30191040039062</v>
+        <v>37.00955581665039</v>
       </c>
       <c r="C52" t="n">
-        <v>54</v>
+        <v>37.16999816894531</v>
       </c>
     </row>
     <row r="53">
@@ -1012,10 +1012,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>53.65917205810547</v>
+        <v>37.30772399902344</v>
       </c>
       <c r="C53" t="n">
-        <v>54.2400016784668</v>
+        <v>37.90000152587891</v>
       </c>
     </row>
     <row r="54">
@@ -1023,10 +1023,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>53.90618896484375</v>
+        <v>37.85697174072266</v>
       </c>
       <c r="C54" t="n">
-        <v>53.68000030517578</v>
+        <v>37.7400016784668</v>
       </c>
     </row>
     <row r="55">
@@ -1034,10 +1034,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53.59025192260742</v>
+        <v>37.87971115112305</v>
       </c>
       <c r="C55" t="n">
-        <v>53.04999923706055</v>
+        <v>36.66999816894531</v>
       </c>
     </row>
     <row r="56">
@@ -1045,10 +1045,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>53.08075714111328</v>
+        <v>36.99923324584961</v>
       </c>
       <c r="C56" t="n">
-        <v>54.09999847412109</v>
+        <v>36.86999893188477</v>
       </c>
     </row>
     <row r="57">
@@ -1056,10 +1056,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>53.66836547851562</v>
+        <v>36.89501190185547</v>
       </c>
       <c r="C57" t="n">
-        <v>54.61000061035156</v>
+        <v>38.34000015258789</v>
       </c>
     </row>
     <row r="58">
@@ -1067,10 +1067,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>54.15679168701172</v>
+        <v>38.09621429443359</v>
       </c>
       <c r="C58" t="n">
-        <v>55.36000061035156</v>
+        <v>37.2400016784668</v>
       </c>
     </row>
     <row r="59">
@@ -1078,10 +1078,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>54.76540756225586</v>
+        <v>37.58810424804688</v>
       </c>
       <c r="C59" t="n">
-        <v>55.25</v>
+        <v>37.45999908447266</v>
       </c>
     </row>
     <row r="60">
@@ -1089,10 +1089,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>54.84316253662109</v>
+        <v>37.49374389648438</v>
       </c>
       <c r="C60" t="n">
-        <v>54.72999954223633</v>
+        <v>37.77000045776367</v>
       </c>
     </row>
     <row r="61">
@@ -1100,10 +1100,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>54.51806640625</v>
+        <v>37.77252578735352</v>
       </c>
       <c r="C61" t="n">
-        <v>54.93999862670898</v>
+        <v>37.18000030517578</v>
       </c>
     </row>
     <row r="62">
@@ -1111,10 +1111,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>54.57740020751953</v>
+        <v>37.39321899414062</v>
       </c>
       <c r="C62" t="n">
-        <v>54.29000091552734</v>
+        <v>37.65999984741211</v>
       </c>
     </row>
     <row r="63">
@@ -1122,10 +1122,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>54.16227340698242</v>
+        <v>37.62722015380859</v>
       </c>
       <c r="C63" t="n">
-        <v>54.43999862670898</v>
+        <v>37.54999923706055</v>
       </c>
     </row>
     <row r="64">
@@ -1133,10 +1133,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>54.15647506713867</v>
+        <v>37.65153503417969</v>
       </c>
       <c r="C64" t="n">
-        <v>54.36999893188477</v>
+        <v>39.06000137329102</v>
       </c>
     </row>
     <row r="65">
@@ -1144,10 +1144,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>54.11129760742188</v>
+        <v>38.81125259399414</v>
       </c>
       <c r="C65" t="n">
-        <v>54.59999847412109</v>
+        <v>39.41999816894531</v>
       </c>
     </row>
     <row r="66">
@@ -1155,10 +1155,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>54.25152206420898</v>
+        <v>39.44114685058594</v>
       </c>
       <c r="C66" t="n">
-        <v>54.61000061035156</v>
+        <v>40.70000076293945</v>
       </c>
     </row>
     <row r="67">
@@ -1166,10 +1166,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>54.29337310791016</v>
+        <v>40.51739501953125</v>
       </c>
       <c r="C67" t="n">
-        <v>55.0099983215332</v>
+        <v>40.81000518798828</v>
       </c>
     </row>
     <row r="68">
@@ -1177,10 +1177,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>54.56723785400391</v>
+        <v>40.88367462158203</v>
       </c>
       <c r="C68" t="n">
-        <v>54.68999481201172</v>
+        <v>38.81999969482422</v>
       </c>
     </row>
     <row r="69">
@@ -1188,10 +1188,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>54.42428588867188</v>
+        <v>39.34687042236328</v>
       </c>
       <c r="C69" t="n">
-        <v>54.40999984741211</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="70">
@@ -1199,10 +1199,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>54.20096206665039</v>
+        <v>39.35813140869141</v>
       </c>
       <c r="C70" t="n">
-        <v>54.18000030517578</v>
+        <v>38.7400016784668</v>
       </c>
     </row>
     <row r="71">
@@ -1210,10 +1210,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>53.99393844604492</v>
+        <v>38.9272575378418</v>
       </c>
       <c r="C71" t="n">
-        <v>54.66999816894531</v>
+        <v>37.90999984741211</v>
       </c>
     </row>
     <row r="72">
@@ -1221,10 +1221,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>54.27021026611328</v>
+        <v>38.12425994873047</v>
       </c>
       <c r="C72" t="n">
-        <v>55.20000076293945</v>
+        <v>37.95000076293945</v>
       </c>
     </row>
     <row r="73">
@@ -1232,10 +1232,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>54.68780517578125</v>
+        <v>37.95812606811523</v>
       </c>
       <c r="C73" t="n">
-        <v>54.43000030517578</v>
+        <v>37.20999908447266</v>
       </c>
     </row>
     <row r="74">
@@ -1243,10 +1243,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>54.28049468994141</v>
+        <v>37.40767669677734</v>
       </c>
       <c r="C74" t="n">
-        <v>54.91999816894531</v>
+        <v>36.90999984741211</v>
       </c>
     </row>
     <row r="75">
@@ -1254,10 +1254,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>54.50254821777344</v>
+        <v>37.0190544128418</v>
       </c>
       <c r="C75" t="n">
-        <v>54.72000122070312</v>
+        <v>38.65000152587891</v>
       </c>
     </row>
     <row r="76">
@@ -1265,10 +1265,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>54.42977523803711</v>
+        <v>38.31974029541016</v>
       </c>
       <c r="C76" t="n">
-        <v>54.40999984741211</v>
+        <v>38.81999969482422</v>
       </c>
     </row>
     <row r="77">
@@ -1276,10 +1276,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>54.20211791992188</v>
+        <v>38.87241744995117</v>
       </c>
       <c r="C77" t="n">
-        <v>53.20999908447266</v>
+        <v>37.86999893188477</v>
       </c>
     </row>
     <row r="78">
@@ -1287,10 +1287,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>53.33686065673828</v>
+        <v>38.16872406005859</v>
       </c>
       <c r="C78" t="n">
-        <v>53.31000137329102</v>
+        <v>39.20999908447266</v>
       </c>
     </row>
     <row r="79">
@@ -1298,10 +1298,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>53.19018936157227</v>
+        <v>38.96469879150391</v>
       </c>
       <c r="C79" t="n">
-        <v>53.4900016784668</v>
+        <v>39.59000015258789</v>
       </c>
     </row>
     <row r="80">
@@ -1309,10 +1309,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>53.28165054321289</v>
+        <v>39.57627487182617</v>
       </c>
       <c r="C80" t="n">
-        <v>54.2400016784668</v>
+        <v>38.81000137329102</v>
       </c>
     </row>
     <row r="81">
@@ -1320,10 +1320,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>53.80820083618164</v>
+        <v>39.06234359741211</v>
       </c>
       <c r="C81" t="n">
-        <v>54.72000122070312</v>
+        <v>39.16999816894531</v>
       </c>
     </row>
     <row r="82">
@@ -1331,10 +1331,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>54.25905609130859</v>
+        <v>39.13493728637695</v>
       </c>
       <c r="C82" t="n">
-        <v>55.11999893188477</v>
+        <v>39.40999984741211</v>
       </c>
     </row>
     <row r="83">
@@ -1342,10 +1342,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>54.63273239135742</v>
+        <v>39.40051651000977</v>
       </c>
       <c r="C83" t="n">
-        <v>53.68000030517578</v>
+        <v>38.61000061035156</v>
       </c>
     </row>
     <row r="84">
@@ -1353,10 +1353,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>53.76701736450195</v>
+        <v>38.84111022949219</v>
       </c>
       <c r="C84" t="n">
-        <v>56.08000183105469</v>
+        <v>39.15999984741211</v>
       </c>
     </row>
     <row r="85">
@@ -1364,10 +1364,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>55.13657760620117</v>
+        <v>39.07263946533203</v>
       </c>
       <c r="C85" t="n">
-        <v>56.02000045776367</v>
+        <v>37.90999984741211</v>
       </c>
     </row>
     <row r="86">
@@ -1375,10 +1375,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>55.43532562255859</v>
+        <v>38.22917556762695</v>
       </c>
       <c r="C86" t="n">
-        <v>56.22000122070312</v>
+        <v>37.83000183105469</v>
       </c>
     </row>
     <row r="87">
@@ -1386,10 +1386,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>55.62265396118164</v>
+        <v>37.87799072265625</v>
       </c>
       <c r="C87" t="n">
-        <v>56.66999816894531</v>
+        <v>37.20999908447266</v>
       </c>
     </row>
     <row r="88">
@@ -1397,10 +1397,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>55.95583343505859</v>
+        <v>37.37897491455078</v>
       </c>
       <c r="C88" t="n">
-        <v>56.31999969482422</v>
+        <v>38.22999954223633</v>
       </c>
     </row>
     <row r="89">
@@ -1408,10 +1408,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>55.81286239624023</v>
+        <v>38.04885482788086</v>
       </c>
       <c r="C89" t="n">
-        <v>56.13999938964844</v>
+        <v>39.7599983215332</v>
       </c>
     </row>
     <row r="90">
@@ -1419,10 +1419,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>55.65995788574219</v>
+        <v>39.49826812744141</v>
       </c>
       <c r="C90" t="n">
-        <v>56.29999923706055</v>
+        <v>39.40999984741211</v>
       </c>
     </row>
     <row r="91">
@@ -1430,10 +1430,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>55.72629928588867</v>
+        <v>39.58876419067383</v>
       </c>
       <c r="C91" t="n">
-        <v>56.20000076293945</v>
+        <v>40.24999618530273</v>
       </c>
     </row>
     <row r="92">
@@ -1441,10 +1441,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>55.67777252197266</v>
+        <v>40.13975143432617</v>
       </c>
       <c r="C92" t="n">
-        <v>56.15999984741211</v>
+        <v>39.2599983215332</v>
       </c>
     </row>
     <row r="93">
@@ -1452,10 +1452,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>55.63871383666992</v>
+        <v>39.54536056518555</v>
       </c>
       <c r="C93" t="n">
-        <v>56.72000122070312</v>
+        <v>39.15999984741211</v>
       </c>
     </row>
     <row r="94">
@@ -1463,10 +1463,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>55.98534774780273</v>
+        <v>39.22066497802734</v>
       </c>
       <c r="C94" t="n">
-        <v>56.47999954223633</v>
+        <v>37.34000015258789</v>
       </c>
     </row>
     <row r="95">
@@ -1474,10 +1474,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>55.91619873046875</v>
+        <v>37.77228927612305</v>
       </c>
       <c r="C95" t="n">
-        <v>56.41999816894531</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="96">
@@ -1485,10 +1485,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>55.8587646484375</v>
+        <v>36.50670623779297</v>
       </c>
       <c r="C96" t="n">
-        <v>56.31999969482422</v>
+        <v>35.43000030517578</v>
       </c>
     </row>
     <row r="97">
@@ -1496,10 +1496,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>55.78345489501953</v>
+        <v>35.63633728027344</v>
       </c>
       <c r="C97" t="n">
-        <v>56.66999816894531</v>
+        <v>35.47000122070312</v>
       </c>
     </row>
     <row r="98">
@@ -1507,10 +1507,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>55.98704147338867</v>
+        <v>35.52077484130859</v>
       </c>
       <c r="C98" t="n">
-        <v>56.20000076293945</v>
+        <v>36.16999816894531</v>
       </c>
     </row>
     <row r="99">
@@ -1518,10 +1518,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>55.73761367797852</v>
+        <v>36.10750198364258</v>
       </c>
       <c r="C99" t="n">
-        <v>55.72999954223633</v>
+        <v>37.45000076293945</v>
       </c>
     </row>
     <row r="100">
@@ -1529,10 +1529,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>55.37409591674805</v>
+        <v>37.28569030761719</v>
       </c>
       <c r="C100" t="n">
-        <v>55.4900016784668</v>
+        <v>37.0099983215332</v>
       </c>
     </row>
     <row r="101">
@@ -1540,10 +1540,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>55.13388061523438</v>
+        <v>37.23167419433594</v>
       </c>
       <c r="C101" t="n">
-        <v>55.61000061035156</v>
+        <v>38.04999923706055</v>
       </c>
     </row>
     <row r="102">
@@ -1551,10 +1551,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>55.15555191040039</v>
+        <v>37.92514038085938</v>
       </c>
       <c r="C102" t="n">
-        <v>56.18000030517578</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="103">
@@ -1562,10 +1562,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>55.52841567993164</v>
+        <v>38.69697952270508</v>
       </c>
       <c r="C103" t="n">
-        <v>55.95999908447266</v>
+        <v>39.97999954223633</v>
       </c>
     </row>
     <row r="104">
@@ -1573,10 +1573,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>55.47671890258789</v>
+        <v>39.81734085083008</v>
       </c>
       <c r="C104" t="n">
-        <v>56.22000122070312</v>
+        <v>41.2400016784668</v>
       </c>
     </row>
     <row r="105">
@@ -1584,10 +1584,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>55.62890243530273</v>
+        <v>41.07360458374023</v>
       </c>
       <c r="C105" t="n">
-        <v>56.36000061035156</v>
+        <v>40.81999969482422</v>
       </c>
     </row>
     <row r="106">
@@ -1595,10 +1595,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>55.75685882568359</v>
+        <v>41.02599334716797</v>
       </c>
       <c r="C106" t="n">
-        <v>55.13000106811523</v>
+        <v>42.03000259399414</v>
       </c>
     </row>
     <row r="107">
@@ -1606,10 +1606,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>54.99333953857422</v>
+        <v>41.83081436157227</v>
       </c>
       <c r="C107" t="n">
-        <v>55.86000061035156</v>
+        <v>43.06000137329102</v>
       </c>
     </row>
     <row r="108">
@@ -1617,10 +1617,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>55.28166580200195</v>
+        <v>42.89892959594727</v>
       </c>
       <c r="C108" t="n">
-        <v>56.29000091552734</v>
+        <v>43.20999908447266</v>
       </c>
     </row>
     <row r="109">
@@ -1628,10 +1628,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>55.63243103027344</v>
+        <v>43.26546478271484</v>
       </c>
       <c r="C109" t="n">
-        <v>56.27999877929688</v>
+        <v>43.45999526977539</v>
       </c>
     </row>
     <row r="110">
@@ -1639,10 +1639,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>55.70507049560547</v>
+        <v>43.47169494628906</v>
       </c>
       <c r="C110" t="n">
-        <v>56.34000015258789</v>
+        <v>42.59999847412109</v>
       </c>
     </row>
     <row r="111">
@@ -1650,10 +1650,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>55.75972366333008</v>
+        <v>42.85119247436523</v>
       </c>
       <c r="C111" t="n">
-        <v>56.36000061035156</v>
+        <v>42.23000335693359</v>
       </c>
     </row>
     <row r="112">
@@ -1661,10 +1661,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>55.78680801391602</v>
+        <v>42.33269500732422</v>
       </c>
       <c r="C112" t="n">
-        <v>55.47999954223633</v>
+        <v>42.11000061035156</v>
       </c>
     </row>
     <row r="113">
@@ -1672,10 +1672,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>55.22761154174805</v>
+        <v>42.13193893432617</v>
       </c>
       <c r="C113" t="n">
-        <v>54.68000030517578</v>
+        <v>41.65000152587891</v>
       </c>
     </row>
     <row r="114">
@@ -1683,10 +1683,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>54.56599044799805</v>
+        <v>41.75540542602539</v>
       </c>
       <c r="C114" t="n">
-        <v>54.95999908447266</v>
+        <v>41.56999969482422</v>
       </c>
     </row>
     <row r="115">
@@ -1694,10 +1694,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>54.59438323974609</v>
+        <v>41.5849494934082</v>
       </c>
       <c r="C115" t="n">
-        <v>53.86000061035156</v>
+        <v>42.09000015258789</v>
       </c>
     </row>
     <row r="116">
@@ -1705,10 +1705,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>53.87087249755859</v>
+        <v>41.97042846679688</v>
       </c>
       <c r="C116" t="n">
-        <v>52.13000106811523</v>
+        <v>41.90000152587891</v>
       </c>
     </row>
     <row r="117">
@@ -1716,10 +1716,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>52.49888229370117</v>
+        <v>41.96297073364258</v>
       </c>
       <c r="C117" t="n">
-        <v>51.56999969482422</v>
+        <v>43.45000076293945</v>
       </c>
     </row>
     <row r="118">
@@ -1727,10 +1727,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>51.76768493652344</v>
+        <v>43.11579895019531</v>
       </c>
       <c r="C118" t="n">
-        <v>52.5</v>
+        <v>43.93999862670898</v>
       </c>
     </row>
     <row r="119">
@@ -1738,10 +1738,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>52.2418212890625</v>
+        <v>43.87461090087891</v>
       </c>
       <c r="C119" t="n">
-        <v>53.15999984741211</v>
+        <v>43.03000259399414</v>
       </c>
     </row>
     <row r="120">
@@ -1749,10 +1749,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>52.81745529174805</v>
+        <v>43.308837890625</v>
       </c>
       <c r="C120" t="n">
-        <v>54.43000030517578</v>
+        <v>41.72999954223633</v>
       </c>
     </row>
     <row r="121">
@@ -1760,10 +1760,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>53.81768035888672</v>
+        <v>42.05620956420898</v>
       </c>
       <c r="C121" t="n">
-        <v>54.18000030517578</v>
+        <v>41.11999893188477</v>
       </c>
     </row>
     <row r="122">
@@ -1771,10 +1771,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>53.90558242797852</v>
+        <v>41.22876358032227</v>
       </c>
       <c r="C122" t="n">
-        <v>54.27000045776367</v>
+        <v>41.85000228881836</v>
       </c>
     </row>
     <row r="123">
@@ -1782,10 +1782,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>53.98440170288086</v>
+        <v>41.64337539672852</v>
       </c>
       <c r="C123" t="n">
-        <v>54.33000183105469</v>
+        <v>42.11999893188477</v>
       </c>
     </row>
     <row r="124">
@@ -1793,10 +1793,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>54.04745864868164</v>
+        <v>42.05947494506836</v>
       </c>
       <c r="C124" t="n">
-        <v>54.81000137329102</v>
+        <v>43.47999954223633</v>
       </c>
     </row>
     <row r="125">
@@ -1804,10 +1804,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>54.38034820556641</v>
+        <v>43.19510650634766</v>
       </c>
       <c r="C125" t="n">
-        <v>54.43999862670898</v>
+        <v>44.7599983215332</v>
       </c>
     </row>
     <row r="126">
@@ -1815,10 +1815,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>54.21606826782227</v>
+        <v>44.51214981079102</v>
       </c>
       <c r="C126" t="n">
-        <v>54.81999969482422</v>
+        <v>42.68000030517578</v>
       </c>
     </row>
     <row r="127">
@@ -1826,10 +1826,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>54.42414093017578</v>
+        <v>43.25305938720703</v>
       </c>
       <c r="C127" t="n">
-        <v>54.93999862670898</v>
+        <v>44.93000030517578</v>
       </c>
     </row>
     <row r="128">
@@ -1837,10 +1837,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>54.5562744140625</v>
+        <v>44.40369415283203</v>
       </c>
       <c r="C128" t="n">
-        <v>54.0099983215332</v>
+        <v>42.9900016784668</v>
       </c>
     </row>
     <row r="129">
@@ -1848,10 +1848,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>53.96773147583008</v>
+        <v>43.47171020507812</v>
       </c>
       <c r="C129" t="n">
-        <v>54.61000061035156</v>
+        <v>48.52000045776367</v>
       </c>
     </row>
     <row r="130">
@@ -1859,10 +1859,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>54.22198867797852</v>
+        <v>47.18404006958008</v>
       </c>
       <c r="C130" t="n">
-        <v>55.31000137329102</v>
+        <v>49.04000091552734</v>
       </c>
     </row>
     <row r="131">
@@ -1870,10 +1870,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>54.74974060058594</v>
+        <v>48.917724609375</v>
       </c>
       <c r="C131" t="n">
-        <v>54.84999847412109</v>
+        <v>48.82000350952148</v>
       </c>
     </row>
     <row r="132">
@@ -1881,10 +1881,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>54.5734748840332</v>
+        <v>48.96746826171875</v>
       </c>
       <c r="C132" t="n">
-        <v>53.77000045776367</v>
+        <v>46.33000183105469</v>
       </c>
     </row>
     <row r="133">
@@ -1892,10 +1892,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>53.80603790283203</v>
+        <v>47.05799102783203</v>
       </c>
       <c r="C133" t="n">
-        <v>51.31000137329102</v>
+        <v>47.18999862670898</v>
       </c>
     </row>
     <row r="134">
@@ -1903,10 +1903,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>51.91249847412109</v>
+        <v>46.93275451660156</v>
       </c>
       <c r="C134" t="n">
-        <v>50.70000076293945</v>
+        <v>48.56999969482422</v>
       </c>
     </row>
     <row r="135">
@@ -1914,10 +1914,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>51.00308609008789</v>
+        <v>48.11357116699219</v>
       </c>
       <c r="C135" t="n">
-        <v>47.54999923706055</v>
+        <v>48.16999816894531</v>
       </c>
     </row>
     <row r="136">
@@ -1925,10 +1925,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>48.48712539672852</v>
+        <v>48.24187088012695</v>
       </c>
       <c r="C136" t="n">
-        <v>46.13999938964844</v>
+        <v>47.45000076293945</v>
       </c>
     </row>
     <row r="137">
@@ -1936,10 +1936,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>46.7879524230957</v>
+        <v>47.64037704467773</v>
       </c>
       <c r="C137" t="n">
-        <v>48.81000137329102</v>
+        <v>46.90000152587891</v>
       </c>
     </row>
     <row r="138">
@@ -1947,10 +1947,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>48.27783203125</v>
+        <v>47.01150512695312</v>
       </c>
       <c r="C138" t="n">
-        <v>46.88999938964844</v>
+        <v>46.20999908447266</v>
       </c>
     </row>
     <row r="139">
@@ -1958,10 +1958,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>47.33933258056641</v>
+        <v>46.3382453918457</v>
       </c>
       <c r="C139" t="n">
-        <v>47.38000106811523</v>
+        <v>46.97999954223633</v>
       </c>
     </row>
     <row r="140">
@@ -1969,10 +1969,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>47.40202713012695</v>
+        <v>46.7182502746582</v>
       </c>
       <c r="C140" t="n">
-        <v>43.61000061035156</v>
+        <v>48.97000122070312</v>
       </c>
     </row>
     <row r="141">
@@ -1980,10 +1980,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>44.6993293762207</v>
+        <v>48.37889862060547</v>
       </c>
       <c r="C141" t="n">
-        <v>40.66999816894531</v>
+        <v>48.5099983215332</v>
       </c>
     </row>
     <row r="142">
@@ -1991,10 +1991,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>41.82769393920898</v>
+        <v>48.5988883972168</v>
       </c>
       <c r="C142" t="n">
-        <v>34.5099983215332</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="143">
@@ -2002,10 +2002,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>36.98295974731445</v>
+        <v>48.49519348144531</v>
       </c>
       <c r="C143" t="n">
-        <v>36.34000015258789</v>
+        <v>46.41999816894531</v>
       </c>
     </row>
     <row r="144">
@@ -2013,10 +2013,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>36.59668731689453</v>
+        <v>46.95713043212891</v>
       </c>
       <c r="C144" t="n">
-        <v>33.65999984741211</v>
+        <v>47.52000045776367</v>
       </c>
     </row>
     <row r="145">
@@ -2024,10 +2024,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>35.17425537109375</v>
+        <v>47.16951751708984</v>
       </c>
       <c r="C145" t="n">
-        <v>30.21999931335449</v>
+        <v>47.56000137329102</v>
       </c>
     </row>
     <row r="146">
@@ -2035,10 +2035,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>33.01651763916016</v>
+        <v>47.45999145507812</v>
       </c>
       <c r="C146" t="n">
-        <v>33.83000183105469</v>
+        <v>47.41000366210938</v>
       </c>
     </row>
     <row r="147">
@@ -2046,10 +2046,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>33.39657974243164</v>
+        <v>47.41316223144531</v>
       </c>
       <c r="C147" t="n">
-        <v>27.3700008392334</v>
+        <v>48.23000335693359</v>
       </c>
     </row>
     <row r="148">
@@ -2057,10 +2057,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>31.44816589355469</v>
+        <v>47.96327209472656</v>
       </c>
       <c r="C148" t="n">
-        <v>29.27000045776367</v>
+        <v>47.86000061035156</v>
       </c>
     </row>
     <row r="149">
@@ -2068,10 +2068,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>30.84602546691895</v>
+        <v>47.91054534912109</v>
       </c>
       <c r="C149" t="n">
-        <v>28.31999969482422</v>
+        <v>47.70999908447266</v>
       </c>
     </row>
     <row r="150">
@@ -2079,10 +2079,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>30.35098266601562</v>
+        <v>47.71781158447266</v>
       </c>
       <c r="C150" t="n">
-        <v>29.96999931335449</v>
+        <v>47.88000106811523</v>
       </c>
     </row>
     <row r="151">
@@ -2090,10 +2090,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>30.50058555603027</v>
+        <v>47.78031158447266</v>
       </c>
       <c r="C151" t="n">
-        <v>30.04000091552734</v>
+        <v>47.95000076293945</v>
       </c>
     </row>
     <row r="152">
@@ -2101,10 +2101,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>30.72672462463379</v>
+        <v>47.8743896484375</v>
       </c>
       <c r="C152" t="n">
-        <v>25.69000053405762</v>
+        <v>47.0099983215332</v>
       </c>
     </row>
     <row r="153">
@@ -2112,10 +2112,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>29.72607612609863</v>
+        <v>47.22087860107422</v>
       </c>
       <c r="C153" t="n">
-        <v>30.1200008392334</v>
+        <v>45.90999984741211</v>
       </c>
     </row>
     <row r="154">
@@ -2123,10 +2123,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>30.00807571411133</v>
+        <v>46.16110992431641</v>
       </c>
       <c r="C154" t="n">
-        <v>30.67000007629395</v>
+        <v>46.72000122070312</v>
       </c>
     </row>
     <row r="155">
@@ -2134,10 +2134,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>30.58369636535645</v>
+        <v>46.43841934204102</v>
       </c>
       <c r="C155" t="n">
-        <v>34.27999877929688</v>
+        <v>47.23000335693359</v>
       </c>
     </row>
     <row r="156">
@@ -2145,10 +2145,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>32.1205940246582</v>
+        <v>47.03043746948242</v>
       </c>
       <c r="C156" t="n">
-        <v>33.27000045776367</v>
+        <v>47.09999847412109</v>
       </c>
     </row>
     <row r="157">
@@ -2156,10 +2156,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>33.04701614379883</v>
+        <v>47.10703659057617</v>
       </c>
       <c r="C157" t="n">
-        <v>32.56000137329102</v>
+        <v>45.90000152587891</v>
       </c>
     </row>
     <row r="158">
@@ -2167,10 +2167,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>33.21657180786133</v>
+        <v>46.19809722900391</v>
       </c>
       <c r="C158" t="n">
-        <v>30.84000015258789</v>
+        <v>46.31999969482422</v>
       </c>
     </row>
     <row r="159">
@@ -2178,10 +2178,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>32.57257461547852</v>
+        <v>46.16914367675781</v>
       </c>
       <c r="C159" t="n">
-        <v>28.46999931335449</v>
+        <v>46.03000259399414</v>
       </c>
     </row>
     <row r="160">
@@ -2189,10 +2189,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>31.34446144104004</v>
+        <v>46.05027008056641</v>
       </c>
       <c r="C160" t="n">
-        <v>28.47999954223633</v>
+        <v>47.29000091552734</v>
       </c>
     </row>
     <row r="161">
@@ -2200,10 +2200,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>30.61980628967285</v>
+        <v>46.9289665222168</v>
       </c>
       <c r="C161" t="n">
-        <v>27.20999908447266</v>
+        <v>46.9900016784668</v>
       </c>
     </row>
     <row r="162">
@@ -2211,10 +2211,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>29.90301132202148</v>
+        <v>47.04096221923828</v>
       </c>
       <c r="C162" t="n">
-        <v>29.76999855041504</v>
+        <v>47.52999877929688</v>
       </c>
     </row>
     <row r="163">
@@ -2222,10 +2222,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>30.09680938720703</v>
+        <v>47.37643814086914</v>
       </c>
       <c r="C163" t="n">
-        <v>30.59000015258789</v>
+        <v>46.72000122070312</v>
       </c>
     </row>
     <row r="164">
@@ -2233,10 +2233,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>30.60964775085449</v>
+        <v>46.90898513793945</v>
       </c>
       <c r="C164" t="n">
-        <v>32.70000076293945</v>
+        <v>47.36999893188477</v>
       </c>
     </row>
     <row r="165">
@@ -2244,10 +2244,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>31.64255905151367</v>
+        <v>47.16925048828125</v>
       </c>
       <c r="C165" t="n">
-        <v>36.11000061035156</v>
+        <v>47.93000030517578</v>
       </c>
     </row>
     <row r="166">
@@ -2255,10 +2255,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>33.62362670898438</v>
+        <v>47.72992324829102</v>
       </c>
       <c r="C166" t="n">
-        <v>33.93999862670898</v>
+        <v>47.18000030517578</v>
       </c>
     </row>
     <row r="167">
@@ -2266,10 +2266,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>34.24350357055664</v>
+        <v>47.35579681396484</v>
       </c>
       <c r="C167" t="n">
-        <v>33.36000061035156</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="168">
@@ -2277,10 +2277,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>34.11734390258789</v>
+        <v>47.38704299926758</v>
       </c>
       <c r="C168" t="n">
-        <v>31.30999755859375</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169">
@@ -2288,10 +2288,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>33.15260696411133</v>
+        <v>49.24699783325195</v>
       </c>
       <c r="C169" t="n">
-        <v>29.63999938964844</v>
+        <v>51.4900016784668</v>
       </c>
     </row>
     <row r="170">
@@ -2299,10 +2299,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>31.98914527893066</v>
+        <v>50.95428085327148</v>
       </c>
       <c r="C170" t="n">
-        <v>33.40000152587891</v>
+        <v>50.65000152587891</v>
       </c>
     </row>
     <row r="171">
@@ -2310,10 +2310,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>32.61590957641602</v>
+        <v>50.82040023803711</v>
       </c>
       <c r="C171" t="n">
-        <v>34.13000106811523</v>
+        <v>50.93999862670898</v>
       </c>
     </row>
     <row r="172">
@@ -2321,10 +2321,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>33.50205230712891</v>
+        <v>50.78316116333008</v>
       </c>
       <c r="C172" t="n">
-        <v>34.02999877929688</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="173">
@@ -2332,10 +2332,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>34.02811050415039</v>
+        <v>51.67624282836914</v>
       </c>
       <c r="C173" t="n">
-        <v>34</v>
+        <v>52.08000183105469</v>
       </c>
     </row>
     <row r="174">
@@ -2343,10 +2343,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>34.25695037841797</v>
+        <v>51.918701171875</v>
       </c>
       <c r="C174" t="n">
-        <v>34.29000091552734</v>
+        <v>53.13999938964844</v>
       </c>
     </row>
     <row r="175">
@@ -2354,10 +2354,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>34.46622085571289</v>
+        <v>52.60072708129883</v>
       </c>
       <c r="C175" t="n">
-        <v>35.47999954223633</v>
+        <v>51.97000122070312</v>
       </c>
     </row>
     <row r="176">
@@ -2365,10 +2365,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>35.08816528320312</v>
+        <v>52.10097122192383</v>
       </c>
       <c r="C176" t="n">
-        <v>37.47000122070312</v>
+        <v>52.15000152587891</v>
       </c>
     </row>
     <row r="177">
@@ -2376,10 +2376,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>36.37768936157227</v>
+        <v>51.91656494140625</v>
       </c>
       <c r="C177" t="n">
-        <v>37.52000045776367</v>
+        <v>51.63000106811523</v>
       </c>
     </row>
     <row r="178">
@@ -2387,10 +2387,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>37.14888763427734</v>
+        <v>51.56314086914062</v>
       </c>
       <c r="C178" t="n">
-        <v>39.20000076293945</v>
+        <v>51.06999969482422</v>
       </c>
     </row>
     <row r="179">
@@ -2398,10 +2398,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>38.35027694702148</v>
+        <v>51.05477142333984</v>
       </c>
       <c r="C179" t="n">
-        <v>37.31999969482422</v>
+        <v>51.18000030517578</v>
       </c>
     </row>
     <row r="180">
@@ -2409,10 +2409,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>37.89910507202148</v>
+        <v>50.95735168457031</v>
       </c>
       <c r="C180" t="n">
-        <v>35.43999862670898</v>
+        <v>51.04999923706055</v>
       </c>
     </row>
     <row r="181">
@@ -2420,10 +2420,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>36.60019302368164</v>
+        <v>50.89010620117188</v>
       </c>
       <c r="C181" t="n">
-        <v>35.56000137329102</v>
+        <v>50.2400016784668</v>
       </c>
     </row>
     <row r="182">
@@ -2431,10 +2431,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>36.0927619934082</v>
+        <v>50.32086563110352</v>
       </c>
       <c r="C182" t="n">
-        <v>35.25</v>
+        <v>48.38999938964844</v>
       </c>
     </row>
     <row r="183">
@@ -2442,10 +2442,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>35.75601196289062</v>
+        <v>48.81850051879883</v>
       </c>
       <c r="C183" t="n">
-        <v>34.31000137329102</v>
+        <v>49.15000152587891</v>
       </c>
     </row>
     <row r="184">
@@ -2453,10 +2453,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>35.16683578491211</v>
+        <v>48.80885696411133</v>
       </c>
       <c r="C184" t="n">
-        <v>35.2400016784668</v>
+        <v>47.97999954223633</v>
       </c>
     </row>
     <row r="185">
@@ -2464,10 +2464,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>35.29544830322266</v>
+        <v>48.15972900390625</v>
       </c>
       <c r="C185" t="n">
-        <v>36.2400016784668</v>
+        <v>48.38000106811523</v>
       </c>
     </row>
     <row r="186">
@@ -2475,10 +2475,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>35.87797546386719</v>
+        <v>48.17816162109375</v>
       </c>
       <c r="C186" t="n">
-        <v>34.41999816894531</v>
+        <v>50.20999908447266</v>
       </c>
     </row>
     <row r="187">
@@ -2486,10 +2486,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>35.34965896606445</v>
+        <v>49.56924438476562</v>
       </c>
       <c r="C187" t="n">
-        <v>33.06000137329102</v>
+        <v>51.52000045776367</v>
       </c>
     </row>
     <row r="188">
@@ -2497,10 +2497,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>34.40130996704102</v>
+        <v>50.99041748046875</v>
       </c>
       <c r="C188" t="n">
-        <v>31.6299991607666</v>
+        <v>53.36999893188477</v>
       </c>
     </row>
     <row r="189">
@@ -2508,10 +2508,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>33.33252334594727</v>
+        <v>52.61661148071289</v>
       </c>
       <c r="C189" t="n">
-        <v>32.06000137329102</v>
+        <v>52.68999862670898</v>
       </c>
     </row>
     <row r="190">
@@ -2519,10 +2519,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>32.95699310302734</v>
+        <v>52.67238998413086</v>
       </c>
       <c r="C190" t="n">
-        <v>31.34999847412109</v>
+        <v>52.97000122070312</v>
       </c>
     </row>
     <row r="191">
@@ -2530,10 +2530,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>32.55574417114258</v>
+        <v>52.69245910644531</v>
       </c>
       <c r="C191" t="n">
-        <v>34.15000152587891</v>
+        <v>53.36999893188477</v>
       </c>
     </row>
     <row r="192">
@@ -2541,10 +2541,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>33.33929061889648</v>
+        <v>52.96022033691406</v>
       </c>
       <c r="C192" t="n">
-        <v>32.34000015258789</v>
+        <v>53.70999908447266</v>
       </c>
     </row>
     <row r="193">
@@ -2552,10 +2552,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>33.27190017700195</v>
+        <v>53.28250122070312</v>
       </c>
       <c r="C193" t="n">
-        <v>33.77000045776367</v>
+        <v>52.77999877929688</v>
       </c>
     </row>
     <row r="194">
@@ -2563,10 +2563,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>33.66998672485352</v>
+        <v>52.79223251342773</v>
       </c>
       <c r="C194" t="n">
-        <v>33.47000122070312</v>
+        <v>54.0099983215332</v>
       </c>
     </row>
     <row r="195">
@@ -2574,10 +2574,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>33.8336181640625</v>
+        <v>53.32050323486328</v>
       </c>
       <c r="C195" t="n">
-        <v>33.29000091552734</v>
+        <v>55.65000152587891</v>
       </c>
     </row>
     <row r="196">
@@ -2585,10 +2585,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>33.82327270507812</v>
+        <v>54.63335800170898</v>
       </c>
       <c r="C196" t="n">
-        <v>36.18999862670898</v>
+        <v>55.65000152587891</v>
       </c>
     </row>
     <row r="197">
@@ -2596,10 +2596,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>34.99248886108398</v>
+        <v>55.1228141784668</v>
       </c>
       <c r="C197" t="n">
-        <v>39.5</v>
+        <v>55.83000183105469</v>
       </c>
     </row>
     <row r="198">
@@ -2607,10 +2607,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>37.33536529541016</v>
+        <v>55.29030990600586</v>
       </c>
       <c r="C198" t="n">
-        <v>38.15000152587891</v>
+        <v>57.58000564575195</v>
       </c>
     </row>
     <row r="199">
@@ -2618,10 +2618,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>38.0330810546875</v>
+        <v>56.33434295654297</v>
       </c>
       <c r="C199" t="n">
-        <v>36.77999877929688</v>
+        <v>59.06999969482422</v>
       </c>
     </row>
     <row r="200">
@@ -2629,10 +2629,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>37.44267272949219</v>
+        <v>57.62046051025391</v>
       </c>
       <c r="C200" t="n">
-        <v>38.06000137329102</v>
+        <v>58.72999954223633</v>
       </c>
     </row>
     <row r="201">
@@ -2640,10 +2640,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>37.80583572387695</v>
+        <v>57.90163803100586</v>
       </c>
       <c r="C201" t="n">
-        <v>37.61000061035156</v>
+        <v>60.16999816894531</v>
       </c>
     </row>
     <row r="202">
@@ -2651,10 +2651,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>37.77740478515625</v>
+        <v>58.63679504394531</v>
       </c>
       <c r="C202" t="n">
-        <v>39.97000122070312</v>
+        <v>58.63000106811523</v>
       </c>
     </row>
     <row r="203">
@@ -2662,10 +2662,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>39.04171752929688</v>
+        <v>58.16627502441406</v>
       </c>
       <c r="C203" t="n">
-        <v>41.86999893188477</v>
+        <v>56.95999908447266</v>
       </c>
     </row>
     <row r="204">
@@ -2673,10 +2673,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>40.79164886474609</v>
+        <v>56.91208648681641</v>
       </c>
       <c r="C204" t="n">
-        <v>44.31000137329102</v>
+        <v>58.80999755859375</v>
       </c>
     </row>
     <row r="205">
@@ -2684,10 +2684,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>43.07696533203125</v>
+        <v>57.34292984008789</v>
       </c>
       <c r="C205" t="n">
-        <v>46.36999893188477</v>
+        <v>58.2599983215332</v>
       </c>
     </row>
     <row r="206">
@@ -2695,10 +2695,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>45.34965133666992</v>
+        <v>57.43399429321289</v>
       </c>
       <c r="C206" t="n">
-        <v>44.68000030517578</v>
+        <v>58.4900016784668</v>
       </c>
     </row>
     <row r="207">
@@ -2706,10 +2706,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>44.98082733154297</v>
+        <v>57.53488159179688</v>
       </c>
       <c r="C207" t="n">
-        <v>41.5099983215332</v>
+        <v>57.38000106811523</v>
       </c>
     </row>
     <row r="208">
@@ -2717,10 +2717,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>42.58303451538086</v>
+        <v>56.97081756591797</v>
       </c>
       <c r="C208" t="n">
-        <v>37.47999954223633</v>
+        <v>58.72000122070312</v>
       </c>
     </row>
     <row r="209">
@@ -2728,10 +2728,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>39.14203643798828</v>
+        <v>57.40908432006836</v>
       </c>
       <c r="C209" t="n">
-        <v>39.47000122070312</v>
+        <v>59.70999908447266</v>
       </c>
     </row>
     <row r="210">
@@ -2739,10 +2739,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>39.31141662597656</v>
+        <v>58.234619140625</v>
       </c>
       <c r="C210" t="n">
-        <v>39.83000183105469</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="211">
@@ -2750,10 +2750,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>39.66135025024414</v>
+        <v>57.80421829223633</v>
       </c>
       <c r="C211" t="n">
-        <v>41.06999969482422</v>
+        <v>58.80000305175781</v>
       </c>
     </row>
     <row r="212">
@@ -2761,10 +2761,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>40.548828125</v>
+        <v>57.76700210571289</v>
       </c>
       <c r="C212" t="n">
-        <v>40.27999877929688</v>
+        <v>58.90999984741211</v>
       </c>
     </row>
     <row r="213">
@@ -2772,10 +2772,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>40.42879486083984</v>
+        <v>57.87256622314453</v>
       </c>
       <c r="C213" t="n">
-        <v>40.5</v>
+        <v>59.91999816894531</v>
       </c>
     </row>
     <row r="214">
@@ -2783,10 +2783,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>40.48184585571289</v>
+        <v>58.45970916748047</v>
       </c>
       <c r="C214" t="n">
-        <v>39.34000015258789</v>
+        <v>59.47999954223633</v>
       </c>
     </row>
     <row r="215">
@@ -2794,10 +2794,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>39.79153060913086</v>
+        <v>58.51089477539062</v>
       </c>
       <c r="C215" t="n">
-        <v>39.52999877929688</v>
+        <v>58.2400016784668</v>
       </c>
     </row>
     <row r="216">
@@ -2805,10 +2805,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>39.63104629516602</v>
+        <v>57.80405807495117</v>
       </c>
       <c r="C216" t="n">
-        <v>40.04000091552734</v>
+        <v>58.58000564575195</v>
       </c>
     </row>
     <row r="217">
@@ -2816,10 +2816,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>39.8958854675293</v>
+        <v>57.61001586914062</v>
       </c>
       <c r="C217" t="n">
-        <v>37.65999984741211</v>
+        <v>59.33000183105469</v>
       </c>
     </row>
     <row r="218">
@@ -2827,10 +2827,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>38.58383560180664</v>
+        <v>58.01439666748047</v>
       </c>
       <c r="C218" t="n">
-        <v>38.54999923706055</v>
+        <v>58.54000091552734</v>
       </c>
     </row>
     <row r="219">
@@ -2838,10 +2838,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>38.5533332824707</v>
+        <v>57.81987380981445</v>
       </c>
       <c r="C219" t="n">
-        <v>35.95000076293945</v>
+        <v>57.47000122070312</v>
       </c>
     </row>
     <row r="220">
@@ -2849,10 +2849,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>37.12681198120117</v>
+        <v>57.08373260498047</v>
       </c>
       <c r="C220" t="n">
-        <v>36.7400016784668</v>
+        <v>56.08000183105469</v>
       </c>
     </row>
     <row r="221">
@@ -2860,10 +2860,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>36.92746734619141</v>
+        <v>55.95634078979492</v>
       </c>
       <c r="C221" t="n">
-        <v>37.54999923706055</v>
+        <v>55.82000350952148</v>
       </c>
     </row>
     <row r="222">
@@ -2871,10 +2871,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>37.32040786743164</v>
+        <v>55.33953475952148</v>
       </c>
       <c r="C222" t="n">
-        <v>36.40999984741211</v>
+        <v>57.4900016784668</v>
       </c>
     </row>
     <row r="223">
@@ -2882,10 +2882,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>36.93251800537109</v>
+        <v>56.17011642456055</v>
       </c>
       <c r="C223" t="n">
-        <v>36.41999816894531</v>
+        <v>59.34999847412109</v>
       </c>
     </row>
     <row r="224">
@@ -2893,10 +2893,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>36.72064208984375</v>
+        <v>57.67248916625977</v>
       </c>
       <c r="C224" t="n">
-        <v>36.68999862670898</v>
+        <v>57.31000137329102</v>
       </c>
     </row>
     <row r="225">
@@ -2904,10 +2904,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>36.77502059936523</v>
+        <v>57.15478134155273</v>
       </c>
       <c r="C225" t="n">
-        <v>35.29999923706055</v>
+        <v>58.77999877929688</v>
       </c>
     </row>
     <row r="226">
@@ -2915,10 +2915,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>36.11385726928711</v>
+        <v>57.51203918457031</v>
       </c>
       <c r="C226" t="n">
-        <v>35.32000350952148</v>
+        <v>58.31999969482422</v>
       </c>
     </row>
     <row r="227">
@@ -2926,10 +2926,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>35.78628540039062</v>
+        <v>57.52034378051758</v>
       </c>
       <c r="C227" t="n">
-        <v>33.61000061035156</v>
+        <v>59.04999923706055</v>
       </c>
     </row>
     <row r="228">
@@ -2937,10 +2937,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>34.85432815551758</v>
+        <v>57.8618049621582</v>
       </c>
       <c r="C228" t="n">
-        <v>35.20000076293945</v>
+        <v>59.15000152587891</v>
       </c>
     </row>
     <row r="229">
@@ -2948,10 +2948,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>35.09111404418945</v>
+        <v>58.08541107177734</v>
       </c>
       <c r="C229" t="n">
-        <v>35.61000061035156</v>
+        <v>59.13000106811523</v>
       </c>
     </row>
     <row r="230">
@@ -2959,10 +2959,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>35.48941040039062</v>
+        <v>58.13922500610352</v>
       </c>
       <c r="C230" t="n">
-        <v>35.18000030517578</v>
+        <v>59.43000030517578</v>
       </c>
     </row>
     <row r="231">
@@ -2970,10 +2970,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>35.50526809692383</v>
+        <v>58.29426574707031</v>
       </c>
       <c r="C231" t="n">
-        <v>36.93000030517578</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="232">
@@ -2981,10 +2981,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>36.30246734619141</v>
+        <v>58.27158737182617</v>
       </c>
       <c r="C232" t="n">
-        <v>37.22000122070312</v>
+        <v>60.01999664306641</v>
       </c>
     </row>
     <row r="233">
@@ -2992,10 +2992,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>36.91604232788086</v>
+        <v>58.63796615600586</v>
       </c>
       <c r="C233" t="n">
-        <v>36.29999923706055</v>
+        <v>60.18999862670898</v>
       </c>
     </row>
     <row r="234">
@@ -3003,10 +3003,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>36.7219123840332</v>
+        <v>58.9155158996582</v>
       </c>
       <c r="C234" t="n">
-        <v>35.72000122070312</v>
+        <v>58.97999954223633</v>
       </c>
     </row>
     <row r="235">
@@ -3014,10 +3014,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>36.28532409667969</v>
+        <v>58.38457107543945</v>
       </c>
       <c r="C235" t="n">
-        <v>37.25</v>
+        <v>59.68999862670898</v>
       </c>
     </row>
     <row r="236">
@@ -3025,10 +3025,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>36.83776473999023</v>
+        <v>58.43412399291992</v>
       </c>
       <c r="C236" t="n">
-        <v>37.16999816894531</v>
+        <v>57.22000122070312</v>
       </c>
     </row>
     <row r="237">
@@ -3036,10 +3036,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>37.12768173217773</v>
+        <v>57.22875595092773</v>
       </c>
       <c r="C237" t="n">
-        <v>37.90000152587891</v>
+        <v>57.84000015258789</v>
       </c>
     </row>
     <row r="238">
@@ -3047,10 +3047,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>37.6226806640625</v>
+        <v>56.91916656494141</v>
       </c>
       <c r="C238" t="n">
-        <v>37.7400016784668</v>
+        <v>57.40000534057617</v>
       </c>
     </row>
     <row r="239">
@@ -3058,10 +3058,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>37.77426528930664</v>
+        <v>56.69901657104492</v>
       </c>
       <c r="C239" t="n">
-        <v>36.66999816894531</v>
+        <v>55.75</v>
       </c>
     </row>
     <row r="240">
@@ -3069,10 +3069,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>37.24230575561523</v>
+        <v>55.68923568725586</v>
       </c>
       <c r="C240" t="n">
-        <v>36.86999893188477</v>
+        <v>56.77000045776367</v>
       </c>
     </row>
     <row r="241">
@@ -3080,10 +3080,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>37.08565902709961</v>
+        <v>55.81025695800781</v>
       </c>
       <c r="C241" t="n">
-        <v>38.34000015258789</v>
+        <v>55.86000061035156</v>
       </c>
     </row>
     <row r="242">
@@ -3091,10 +3091,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>37.8132209777832</v>
+        <v>55.48369216918945</v>
       </c>
       <c r="C242" t="n">
-        <v>37.2400016784668</v>
+        <v>57.62000274658203</v>
       </c>
     </row>
     <row r="243">
@@ -3102,10 +3102,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>37.60268020629883</v>
+        <v>56.32661819458008</v>
       </c>
       <c r="C243" t="n">
-        <v>37.45999908447266</v>
+        <v>57.72000122070312</v>
       </c>
     </row>
     <row r="244">
@@ -3113,10 +3113,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>37.5728645324707</v>
+        <v>56.82326889038086</v>
       </c>
       <c r="C244" t="n">
-        <v>37.77000045776367</v>
+        <v>58.29999923706055</v>
       </c>
     </row>
     <row r="245">
@@ -3124,10 +3124,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>37.73768997192383</v>
+        <v>57.27036666870117</v>
       </c>
       <c r="C245" t="n">
-        <v>37.18000030517578</v>
+        <v>58.93999862670898</v>
       </c>
     </row>
     <row r="246">
@@ -3135,10 +3135,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>37.50181579589844</v>
+        <v>57.77570724487305</v>
       </c>
       <c r="C246" t="n">
-        <v>37.65999984741211</v>
+        <v>59.93000030517578</v>
       </c>
     </row>
     <row r="247">
@@ -3146,10 +3146,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>37.63594818115234</v>
+        <v>58.48989868164062</v>
       </c>
       <c r="C247" t="n">
-        <v>37.54999923706055</v>
+        <v>59.31000137329102</v>
       </c>
     </row>
     <row r="248">
@@ -3157,10 +3157,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>37.65608596801758</v>
+        <v>58.45502853393555</v>
       </c>
       <c r="C248" t="n">
-        <v>39.06000137329102</v>
+        <v>59.18999862670898</v>
       </c>
     </row>
     <row r="249">
@@ -3168,10 +3168,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>38.48091125488281</v>
+        <v>58.27620697021484</v>
       </c>
       <c r="C249" t="n">
-        <v>39.41999816894531</v>
+        <v>60.00000381469727</v>
       </c>
     </row>
     <row r="250">
@@ -3179,10 +3179,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>39.09702301025391</v>
+        <v>58.61154556274414</v>
       </c>
       <c r="C250" t="n">
-        <v>40.70000076293945</v>
+        <v>60.59999847412109</v>
       </c>
     </row>
     <row r="251">
@@ -3190,10 +3190,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>40.09290313720703</v>
+        <v>59.11226272583008</v>
       </c>
       <c r="C251" t="n">
-        <v>40.81000137329102</v>
+        <v>61.04999923706055</v>
       </c>
     </row>
     <row r="252">
@@ -3201,10 +3201,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>40.58985900878906</v>
+        <v>59.54520034790039</v>
       </c>
       <c r="C252" t="n">
-        <v>38.81999969482422</v>
+        <v>61.56999969482422</v>
       </c>
     </row>
     <row r="253">
@@ -3212,10 +3212,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>39.53263854980469</v>
+        <v>59.95708847045898</v>
       </c>
       <c r="C253" t="n">
-        <v>39.5</v>
+        <v>60.88999938964844</v>
       </c>
     </row>
     <row r="254">
@@ -3223,10 +3223,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>39.50327301025391</v>
+        <v>59.78548431396484</v>
       </c>
       <c r="C254" t="n">
-        <v>38.7400016784668</v>
+        <v>60.4900016784668</v>
       </c>
     </row>
     <row r="255">
@@ -3234,10 +3234,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>39.07537841796875</v>
+        <v>59.43500518798828</v>
       </c>
       <c r="C255" t="n">
-        <v>37.90999984741211</v>
+        <v>59.61000442504883</v>
       </c>
     </row>
     <row r="256">
@@ -3245,10 +3245,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>38.4097785949707</v>
+        <v>58.82668304443359</v>
       </c>
       <c r="C256" t="n">
-        <v>37.95000076293945</v>
+        <v>60.56999969482422</v>
       </c>
     </row>
     <row r="257">
@@ -3256,10 +3256,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>38.1632080078125</v>
+        <v>59.03374099731445</v>
       </c>
       <c r="C257" t="n">
-        <v>37.20999908447266</v>
+        <v>61.63999938964844</v>
       </c>
     </row>
     <row r="258">
@@ -3267,10 +3267,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>37.66849136352539</v>
+        <v>59.76245880126953</v>
       </c>
       <c r="C258" t="n">
-        <v>36.90999984741211</v>
+        <v>62.02000045776367</v>
       </c>
     </row>
     <row r="259">
@@ -3278,10 +3278,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>37.29052734375</v>
+        <v>60.29278945922852</v>
       </c>
       <c r="C259" t="n">
-        <v>38.65000152587891</v>
+        <v>61.18999862670898</v>
       </c>
     </row>
     <row r="260">
@@ -3289,10 +3289,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>38.0680046081543</v>
+        <v>60.07919311523438</v>
       </c>
       <c r="C260" t="n">
-        <v>38.81999969482422</v>
+        <v>60.3800048828125</v>
       </c>
     </row>
     <row r="261">
@@ -3300,10 +3300,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>38.57747268676758</v>
+        <v>59.4924201965332</v>
       </c>
       <c r="C261" t="n">
-        <v>37.86999893188477</v>
+        <v>60.2599983215332</v>
       </c>
     </row>
     <row r="262">
@@ -3311,10 +3311,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>38.24142837524414</v>
+        <v>59.1392707824707</v>
       </c>
       <c r="C262" t="n">
-        <v>39.20999908447266</v>
+        <v>60.88000106811523</v>
       </c>
     </row>
     <row r="263">
@@ -3322,10 +3322,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>38.81447982788086</v>
+        <v>59.34400177001953</v>
       </c>
       <c r="C263" t="n">
-        <v>39.59000015258789</v>
+        <v>61.21000289916992</v>
       </c>
     </row>
     <row r="264">
@@ -3333,10 +3333,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>39.32394027709961</v>
+        <v>59.66463470458984</v>
       </c>
       <c r="C264" t="n">
-        <v>38.81000137329102</v>
+        <v>60.06000137329102</v>
       </c>
     </row>
     <row r="265">
@@ -3344,10 +3344,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>39.07202529907227</v>
+        <v>59.23604965209961</v>
       </c>
       <c r="C265" t="n">
-        <v>39.16999816894531</v>
+        <v>60.62000274658203</v>
       </c>
     </row>
     <row r="266">
@@ -3355,10 +3355,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>39.14863967895508</v>
+        <v>59.23872756958008</v>
       </c>
       <c r="C266" t="n">
-        <v>39.40999984741211</v>
+        <v>62.13999938964844</v>
       </c>
     </row>
     <row r="267">
@@ -3366,10 +3366,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>39.33541870117188</v>
+        <v>60.0527458190918</v>
       </c>
       <c r="C267" t="n">
-        <v>38.61000061035156</v>
+        <v>61.77999877929688</v>
       </c>
     </row>
     <row r="268">
@@ -3377,10 +3377,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>38.94363784790039</v>
+        <v>60.30456161499023</v>
       </c>
       <c r="C268" t="n">
-        <v>39.15999984741211</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="269">
@@ -3388,10 +3388,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>39.08629608154297</v>
+        <v>60.19261169433594</v>
       </c>
       <c r="C269" t="n">
-        <v>37.90999984741211</v>
+        <v>60.77999877929688</v>
       </c>
     </row>
     <row r="270">
@@ -3399,10 +3399,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>38.43999862670898</v>
+        <v>59.7496452331543</v>
       </c>
       <c r="C270" t="n">
-        <v>37.83000183105469</v>
+        <v>60.80000305175781</v>
       </c>
     </row>
     <row r="271">
@@ -3410,10 +3410,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>38.10743713378906</v>
+        <v>59.52923583984375</v>
       </c>
       <c r="C271" t="n">
-        <v>37.20999908447266</v>
+        <v>60.18999862670898</v>
       </c>
     </row>
     <row r="272">
@@ -3421,10 +3421,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>37.64204788208008</v>
+        <v>59.17133331298828</v>
       </c>
       <c r="C272" t="n">
-        <v>38.22999954223633</v>
+        <v>60.06000137329102</v>
       </c>
     </row>
     <row r="273">
@@ -3432,10 +3432,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>37.99895095825195</v>
+        <v>58.94169616699219</v>
       </c>
       <c r="C273" t="n">
-        <v>39.7599983215332</v>
+        <v>59.83000183105469</v>
       </c>
     </row>
     <row r="274">
@@ -3443,10 +3443,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>39.04872131347656</v>
+        <v>58.75476837158203</v>
       </c>
       <c r="C274" t="n">
-        <v>39.40999984741211</v>
+        <v>58.45000076293945</v>
       </c>
     </row>
     <row r="275">
@@ -3454,10 +3454,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>39.34207916259766</v>
+        <v>57.97237014770508</v>
       </c>
       <c r="C275" t="n">
-        <v>40.25</v>
+        <v>57.83000183105469</v>
       </c>
     </row>
     <row r="276">
@@ -3465,10 +3465,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>39.91617202758789</v>
+        <v>57.24966049194336</v>
       </c>
       <c r="C276" t="n">
-        <v>39.2599983215332</v>
+        <v>57.99000549316406</v>
       </c>
     </row>
     <row r="277">
@@ -3476,10 +3476,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>39.56467437744141</v>
+        <v>57.07876586914062</v>
       </c>
       <c r="C277" t="n">
-        <v>39.15999984741211</v>
+        <v>56.68999862670898</v>
       </c>
     </row>
     <row r="278">
@@ -3487,10 +3487,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>39.33338165283203</v>
+        <v>56.3721809387207</v>
       </c>
       <c r="C278" t="n">
-        <v>37.34000015258789</v>
+        <v>57.21000289916992</v>
       </c>
     </row>
     <row r="279">
@@ -3498,10 +3498,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>38.18129730224609</v>
+        <v>56.33399200439453</v>
       </c>
       <c r="C279" t="n">
-        <v>36.25000381469727</v>
+        <v>57.80000305175781</v>
       </c>
     </row>
     <row r="280">
@@ -3509,10 +3509,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>37.10392761230469</v>
+        <v>56.75087738037109</v>
       </c>
       <c r="C280" t="n">
-        <v>35.43000030517578</v>
+        <v>54.33000183105469</v>
       </c>
     </row>
     <row r="281">
@@ -3520,10 +3520,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>36.24821853637695</v>
+        <v>54.9659538269043</v>
       </c>
       <c r="C281" t="n">
-        <v>35.47000122070312</v>
+        <v>52.80999755859375</v>
       </c>
     </row>
     <row r="282">
@@ -3531,10 +3531,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>35.91241073608398</v>
+        <v>53.0825080871582</v>
       </c>
       <c r="C282" t="n">
-        <v>36.16999816894531</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="283">
@@ -3542,10 +3542,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>36.12700653076172</v>
+        <v>53.50798416137695</v>
       </c>
       <c r="C283" t="n">
-        <v>37.45000076293945</v>
+        <v>54.36000061035156</v>
       </c>
     </row>
     <row r="284">
@@ -3553,10 +3553,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>36.90013885498047</v>
+        <v>53.85658645629883</v>
       </c>
       <c r="C284" t="n">
-        <v>37.0099983215332</v>
+        <v>54.63000106811523</v>
       </c>
     </row>
     <row r="285">
@@ -3564,10 +3564,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>37.08913803100586</v>
+        <v>54.1094970703125</v>
       </c>
       <c r="C285" t="n">
-        <v>38.04999923706055</v>
+        <v>55.31999969482422</v>
       </c>
     </row>
     <row r="286">
@@ -3575,10 +3575,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>37.6749153137207</v>
+        <v>54.61227798461914</v>
       </c>
       <c r="C286" t="n">
-        <v>38.75</v>
+        <v>56.13000106811523</v>
       </c>
     </row>
     <row r="287">
@@ -3586,10 +3586,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>38.34889984130859</v>
+        <v>55.29683303833008</v>
       </c>
       <c r="C287" t="n">
-        <v>39.97999954223633</v>
+        <v>55.21000289916992</v>
       </c>
     </row>
     <row r="288">
@@ -3597,10 +3597,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>39.34618759155273</v>
+        <v>54.99702072143555</v>
       </c>
       <c r="C288" t="n">
-        <v>41.2400016784668</v>
+        <v>55.29999923706055</v>
       </c>
     </row>
     <row r="289">
@@ -3608,10 +3608,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>40.53868103027344</v>
+        <v>54.8255500793457</v>
       </c>
       <c r="C289" t="n">
-        <v>40.81999969482422</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="290">
@@ -3619,10 +3619,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>40.77769470214844</v>
+        <v>54.91068649291992</v>
       </c>
       <c r="C290" t="n">
-        <v>42.02999877929688</v>
+        <v>56.29999923706055</v>
       </c>
     </row>
     <row r="291">
@@ -3630,10 +3630,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>41.58764266967773</v>
+        <v>55.44456481933594</v>
       </c>
       <c r="C291" t="n">
-        <v>43.06000137329102</v>
+        <v>56.03000259399414</v>
       </c>
     </row>
     <row r="292">
@@ -3641,10 +3641,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>42.57842254638672</v>
+        <v>55.51702499389648</v>
       </c>
       <c r="C292" t="n">
-        <v>43.20999908447266</v>
+        <v>54.42000198364258</v>
       </c>
     </row>
     <row r="293">
@@ -3652,10 +3652,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>43.04378509521484</v>
+        <v>54.52398681640625</v>
       </c>
       <c r="C293" t="n">
-        <v>43.45999908447266</v>
+        <v>53.68000030517578</v>
       </c>
     </row>
     <row r="294">
@@ -3663,10 +3663,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>43.35752868652344</v>
+        <v>53.5898551940918</v>
       </c>
       <c r="C294" t="n">
-        <v>42.59999847412109</v>
+        <v>52.97999954223633</v>
       </c>
     </row>
     <row r="295">
@@ -3674,10 +3674,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>42.8784065246582</v>
+        <v>52.85245895385742</v>
       </c>
       <c r="C295" t="n">
-        <v>42.22999954223633</v>
+        <v>55.21000289916992</v>
       </c>
     </row>
     <row r="296">
@@ -3685,10 +3685,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>42.45602416992188</v>
+        <v>54.04502105712891</v>
       </c>
       <c r="C296" t="n">
-        <v>42.11000061035156</v>
+        <v>55.59999847412109</v>
       </c>
     </row>
     <row r="297">
@@ -3696,10 +3696,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>42.23826599121094</v>
+        <v>54.8845100402832</v>
       </c>
       <c r="C297" t="n">
-        <v>41.65000152587891</v>
+        <v>54.70999908447266</v>
       </c>
     </row>
     <row r="298">
@@ -3707,10 +3707,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>41.86306762695312</v>
+        <v>54.56507110595703</v>
       </c>
       <c r="C298" t="n">
-        <v>41.56999969482422</v>
+        <v>54.42999649047852</v>
       </c>
     </row>
     <row r="299">
@@ -3718,10 +3718,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>41.67832946777344</v>
+        <v>54.15314483642578</v>
       </c>
       <c r="C299" t="n">
-        <v>42.09000015258789</v>
+        <v>55.86000061035156</v>
       </c>
     </row>
     <row r="300">
@@ -3729,10 +3729,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>41.9576301574707</v>
+        <v>54.88319396972656</v>
       </c>
       <c r="C300" t="n">
-        <v>41.90000152587891</v>
+        <v>54.38999938964844</v>
       </c>
     </row>
     <row r="301">
@@ -3740,10 +3740,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>41.94253540039062</v>
+        <v>54.37171936035156</v>
       </c>
       <c r="C301" t="n">
-        <v>43.45000076293945</v>
+        <v>52.18000030517578</v>
       </c>
     </row>
     <row r="302">
@@ -3751,10 +3751,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>42.94634246826172</v>
+        <v>52.65967559814453</v>
       </c>
       <c r="C302" t="n">
-        <v>43.93999862670898</v>
+        <v>54.06999969482422</v>
       </c>
     </row>
     <row r="303">
@@ -3762,10 +3762,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>43.65634155273438</v>
+        <v>53.14651870727539</v>
       </c>
       <c r="C303" t="n">
-        <v>43.02999877929688</v>
+        <v>55.27999877929688</v>
       </c>
     </row>
     <row r="304">
@@ -3773,10 +3773,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>43.27038955688477</v>
+        <v>54.34190368652344</v>
       </c>
       <c r="C304" t="n">
-        <v>41.72999954223633</v>
+        <v>54.33000183105469</v>
       </c>
     </row>
     <row r="305">
@@ -3784,10 +3784,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>42.23952484130859</v>
+        <v>54.19402694702148</v>
       </c>
       <c r="C305" t="n">
-        <v>41.11999893188477</v>
+        <v>54.45999908447266</v>
       </c>
     </row>
     <row r="306">
@@ -3795,10 +3795,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>41.49345779418945</v>
+        <v>54.06698989868164</v>
       </c>
       <c r="C306" t="n">
-        <v>41.84999847412109</v>
+        <v>54.90000152587891</v>
       </c>
     </row>
     <row r="307">
@@ -3806,10 +3806,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>41.72647857666016</v>
+        <v>54.31039810180664</v>
       </c>
       <c r="C307" t="n">
-        <v>42.11999893188477</v>
+        <v>54.95000076293945</v>
       </c>
     </row>
     <row r="308">
@@ -3817,10 +3817,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>42.00489044189453</v>
+        <v>54.4628791809082</v>
       </c>
       <c r="C308" t="n">
-        <v>43.47999954223633</v>
+        <v>55.08000183105469</v>
       </c>
     </row>
     <row r="309">
@@ -3828,10 +3828,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>42.99457168579102</v>
+        <v>54.57709121704102</v>
       </c>
       <c r="C309" t="n">
-        <v>44.7599983215332</v>
+        <v>55.31999969482422</v>
       </c>
     </row>
     <row r="310">
@@ -3839,10 +3839,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>44.22024917602539</v>
+        <v>54.75617599487305</v>
       </c>
       <c r="C310" t="n">
-        <v>42.68000030517578</v>
+        <v>54.42999649047852</v>
       </c>
     </row>
     <row r="311">
@@ -3850,10 +3850,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>43.21955490112305</v>
+        <v>54.28348159790039</v>
       </c>
       <c r="C311" t="n">
-        <v>44.93000030517578</v>
+        <v>54.13999938964844</v>
       </c>
     </row>
     <row r="312">
@@ -3861,10 +3861,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>44.39009094238281</v>
+        <v>53.86299514770508</v>
       </c>
       <c r="C312" t="n">
-        <v>42.9900016784668</v>
+        <v>55.31000137329102</v>
       </c>
     </row>
     <row r="313">
@@ -3872,10 +3872,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>43.48422622680664</v>
+        <v>54.45623016357422</v>
       </c>
       <c r="C313" t="n">
-        <v>48.52000045776367</v>
+        <v>54.59000015258789</v>
       </c>
     </row>
     <row r="314">
@@ -3883,10 +3883,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>46.92727661132812</v>
+        <v>54.33163070678711</v>
       </c>
       <c r="C314" t="n">
-        <v>49.04000091552734</v>
+        <v>55.54999923706055</v>
       </c>
     </row>
     <row r="315">
@@ -3894,10 +3894,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>48.51391220092773</v>
+        <v>54.77967071533203</v>
       </c>
       <c r="C315" t="n">
-        <v>48.81999969482422</v>
+        <v>56.59999847412109</v>
       </c>
     </row>
     <row r="316">
@@ -3905,10 +3905,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>48.79868316650391</v>
+        <v>55.62958526611328</v>
       </c>
       <c r="C316" t="n">
-        <v>46.33000183105469</v>
+        <v>56.72000122070312</v>
       </c>
     </row>
     <row r="317">
@@ -3916,10 +3916,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>47.07492828369141</v>
+        <v>56.02324295043945</v>
       </c>
       <c r="C317" t="n">
-        <v>47.18999862670898</v>
+        <v>57.95999908447266</v>
       </c>
     </row>
     <row r="318">
@@ -3927,10 +3927,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>47.20938873291016</v>
+        <v>56.80706787109375</v>
       </c>
       <c r="C318" t="n">
-        <v>48.56999969482422</v>
+        <v>58.86000061035156</v>
       </c>
     </row>
     <row r="319">
@@ -3938,10 +3938,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>48.24546813964844</v>
+        <v>57.62394714355469</v>
       </c>
       <c r="C319" t="n">
-        <v>48.16999816894531</v>
+        <v>58.5099983215332</v>
       </c>
     </row>
     <row r="320">
@@ -3949,10 +3949,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>48.25848770141602</v>
+        <v>57.72340774536133</v>
       </c>
       <c r="C320" t="n">
-        <v>47.45000076293945</v>
+        <v>57.38000106811523</v>
       </c>
     </row>
     <row r="321">
@@ -3960,10 +3960,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>47.73131942749023</v>
+        <v>57.04988098144531</v>
       </c>
       <c r="C321" t="n">
-        <v>46.90000152587891</v>
+        <v>57.06999969482422</v>
       </c>
     </row>
     <row r="322">
@@ -3971,10 +3971,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>47.18656158447266</v>
+        <v>56.52011489868164</v>
       </c>
       <c r="C322" t="n">
-        <v>46.20999908447266</v>
+        <v>56.18999862670898</v>
       </c>
     </row>
     <row r="323">
@@ -3982,10 +3982,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>46.53669357299805</v>
+        <v>55.84819412231445</v>
       </c>
       <c r="C323" t="n">
-        <v>46.97999954223633</v>
+        <v>55.56000137329102</v>
       </c>
     </row>
     <row r="324">
@@ -3993,10 +3993,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>46.90165710449219</v>
+        <v>55.21770858764648</v>
       </c>
       <c r="C324" t="n">
-        <v>48.97000122070312</v>
+        <v>55.04000091552734</v>
       </c>
     </row>
     <row r="325">
@@ -4004,10 +4004,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>48.42424774169922</v>
+        <v>54.69509887695312</v>
       </c>
       <c r="C325" t="n">
-        <v>48.5099983215332</v>
+        <v>55.58000564575195</v>
       </c>
     </row>
     <row r="326">
@@ -4015,10 +4015,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>48.55287551879883</v>
+        <v>54.85723876953125</v>
       </c>
       <c r="C326" t="n">
-        <v>48.5</v>
+        <v>56.08000183105469</v>
       </c>
     </row>
     <row r="327">
@@ -4026,10 +4026,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>48.56682205200195</v>
+        <v>55.29852676391602</v>
       </c>
       <c r="C327" t="n">
-        <v>46.41999816894531</v>
+        <v>56.70999908447266</v>
       </c>
     </row>
     <row r="328">
@@ -4037,10 +4037,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>47.06980514526367</v>
+        <v>55.84760665893555</v>
       </c>
       <c r="C328" t="n">
-        <v>47.52000045776367</v>
+        <v>57.56000137329102</v>
       </c>
     </row>
     <row r="329">
@@ -4048,10 +4048,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>47.44063949584961</v>
+        <v>56.53573608398438</v>
       </c>
       <c r="C329" t="n">
-        <v>47.56000137329102</v>
+        <v>56.97999954223633</v>
       </c>
     </row>
     <row r="330">
@@ -4059,10 +4059,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>47.59035491943359</v>
+        <v>56.46198272705078</v>
       </c>
       <c r="C330" t="n">
-        <v>47.40999984741211</v>
+        <v>57.97000122070312</v>
       </c>
     </row>
     <row r="331">
@@ -4070,10 +4070,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>47.51673126220703</v>
+        <v>56.8953742980957</v>
       </c>
       <c r="C331" t="n">
-        <v>48.22999954223633</v>
+        <v>56.79000473022461</v>
       </c>
     </row>
     <row r="332">
@@ -4081,10 +4081,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>48.08076858520508</v>
+        <v>56.45638275146484</v>
       </c>
       <c r="C332" t="n">
-        <v>47.86000061035156</v>
+        <v>57.06000137329102</v>
       </c>
     </row>
     <row r="333">
@@ -4092,10 +4092,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>47.98421478271484</v>
+        <v>56.33008575439453</v>
       </c>
       <c r="C333" t="n">
-        <v>47.70999908447266</v>
+        <v>56.22000122070312</v>
       </c>
     </row>
     <row r="334">
@@ -4103,10 +4103,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>47.84200286865234</v>
+        <v>55.85140609741211</v>
       </c>
       <c r="C334" t="n">
-        <v>47.88000106811523</v>
+        <v>56.59999847412109</v>
       </c>
     </row>
     <row r="335">
@@ -4114,10 +4114,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>47.92596054077148</v>
+        <v>55.85084915161133</v>
       </c>
       <c r="C335" t="n">
-        <v>47.95000076293945</v>
+        <v>56.45000076293945</v>
       </c>
     </row>
     <row r="336">
@@ -4125,10 +4125,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>48.00160598754883</v>
+        <v>55.8296012878418</v>
       </c>
       <c r="C336" t="n">
-        <v>47.0099983215332</v>
+        <v>56.01999664306641</v>
       </c>
     </row>
     <row r="337">
@@ -4136,10 +4136,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>47.3444709777832</v>
+        <v>55.56627655029297</v>
       </c>
       <c r="C337" t="n">
-        <v>45.90999984741211</v>
+        <v>55.63999938964844</v>
       </c>
     </row>
     <row r="338">
@@ -4147,10 +4147,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>46.35819244384766</v>
+        <v>55.22140884399414</v>
       </c>
       <c r="C338" t="n">
-        <v>46.72000122070312</v>
+        <v>55.72999954223633</v>
       </c>
     </row>
     <row r="339">
@@ -4158,10 +4158,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>46.66130065917969</v>
+        <v>55.1478271484375</v>
       </c>
       <c r="C339" t="n">
-        <v>47.22999954223633</v>
+        <v>55.20000457763672</v>
       </c>
     </row>
     <row r="340">
@@ -4169,10 +4169,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>47.12352752685547</v>
+        <v>54.84315490722656</v>
       </c>
       <c r="C340" t="n">
-        <v>47.09999847412109</v>
+        <v>56.22999572753906</v>
       </c>
     </row>
     <row r="341">
@@ -4180,10 +4180,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>47.16382217407227</v>
+        <v>55.32361602783203</v>
       </c>
       <c r="C341" t="n">
-        <v>45.90000152587891</v>
+        <v>54.63000106811523</v>
       </c>
     </row>
     <row r="342">
@@ -4191,10 +4191,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>46.30923843383789</v>
+        <v>54.63293838500977</v>
       </c>
       <c r="C342" t="n">
-        <v>46.31999969482422</v>
+        <v>55.58000564575195</v>
       </c>
     </row>
     <row r="343">
@@ -4202,10 +4202,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>46.35986709594727</v>
+        <v>54.81564331054688</v>
       </c>
       <c r="C343" t="n">
-        <v>46.02999877929688</v>
+        <v>55.27999877929688</v>
       </c>
     </row>
     <row r="344">
@@ -4213,10 +4213,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>46.17850875854492</v>
+        <v>54.81840133666992</v>
       </c>
       <c r="C344" t="n">
-        <v>47.29000091552734</v>
+        <v>55.33000183105469</v>
       </c>
     </row>
     <row r="345">
@@ -4224,10 +4224,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>47.0142936706543</v>
+        <v>54.81936264038086</v>
       </c>
       <c r="C345" t="n">
-        <v>46.9900016784668</v>
+        <v>53.68000030517578</v>
       </c>
     </row>
     <row r="346">
@@ -4235,10 +4235,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>47.06086349487305</v>
+        <v>53.81891250610352</v>
       </c>
       <c r="C346" t="n">
-        <v>47.52999877929688</v>
+        <v>53.66999816894531</v>
       </c>
     </row>
     <row r="347">
@@ -4246,10 +4246,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>47.44899368286133</v>
+        <v>53.34544372558594</v>
       </c>
       <c r="C347" t="n">
-        <v>46.72000122070312</v>
+        <v>54.7400016784668</v>
       </c>
     </row>
     <row r="348">
@@ -4257,10 +4257,516 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>46.98777389526367</v>
+        <v>53.93791198730469</v>
       </c>
       <c r="C348" t="n">
-        <v>47.36999893188477</v>
+        <v>57.09000015258789</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>55.67611694335938</v>
+      </c>
+      <c r="C349" t="n">
+        <v>58.00000381469727</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>56.87680435180664</v>
+      </c>
+      <c r="C350" t="n">
+        <v>60.15000152587891</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>58.39128112792969</v>
+      </c>
+      <c r="C351" t="n">
+        <v>59.18999862670898</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>58.46249389648438</v>
+      </c>
+      <c r="C352" t="n">
+        <v>59.42000198364258</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>58.42161178588867</v>
+      </c>
+      <c r="C353" t="n">
+        <v>58.65000152587891</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>57.98819732666016</v>
+      </c>
+      <c r="C354" t="n">
+        <v>60.22000122070312</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>58.58740234375</v>
+      </c>
+      <c r="C355" t="n">
+        <v>60.04999923706055</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>58.86118316650391</v>
+      </c>
+      <c r="C356" t="n">
+        <v>60.27999877929688</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>59.03149795532227</v>
+      </c>
+      <c r="C357" t="n">
+        <v>60.13000106811523</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>59.00818634033203</v>
+      </c>
+      <c r="C358" t="n">
+        <v>60.52000045776367</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>59.16815948486328</v>
+      </c>
+      <c r="C359" t="n">
+        <v>60.83000183105469</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>59.40980911254883</v>
+      </c>
+      <c r="C360" t="n">
+        <v>60.22999954223633</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>59.21366882324219</v>
+      </c>
+      <c r="C361" t="n">
+        <v>60.22999954223633</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>59.07305526733398</v>
+      </c>
+      <c r="C362" t="n">
+        <v>59.91999816894531</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>58.87006759643555</v>
+      </c>
+      <c r="C363" t="n">
+        <v>60.63999938964844</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>59.14558410644531</v>
+      </c>
+      <c r="C364" t="n">
+        <v>61.34000015258789</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>59.66651153564453</v>
+      </c>
+      <c r="C365" t="n">
+        <v>61.7599983215332</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>60.1036376953125</v>
+      </c>
+      <c r="C366" t="n">
+        <v>62.56999969482422</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>60.64871978759766</v>
+      </c>
+      <c r="C367" t="n">
+        <v>63.88000106811523</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>61.48105239868164</v>
+      </c>
+      <c r="C368" t="n">
+        <v>63.58000564575195</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>61.72527313232422</v>
+      </c>
+      <c r="C369" t="n">
+        <v>64.44000244140625</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>62.11807632446289</v>
+      </c>
+      <c r="C370" t="n">
+        <v>64.56999969482422</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>62.36223602294922</v>
+      </c>
+      <c r="C371" t="n">
+        <v>64.44000244140625</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>62.38819885253906</v>
+      </c>
+      <c r="C372" t="n">
+        <v>63.01000213623047</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>61.74991226196289</v>
+      </c>
+      <c r="C373" t="n">
+        <v>63.88999938964844</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>61.74453353881836</v>
+      </c>
+      <c r="C374" t="n">
+        <v>63.47000122070312</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>61.65824890136719</v>
+      </c>
+      <c r="C375" t="n">
+        <v>64.43000030517578</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>62.02449035644531</v>
+      </c>
+      <c r="C376" t="n">
+        <v>64.30000305175781</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>62.19362258911133</v>
+      </c>
+      <c r="C377" t="n">
+        <v>65.13999938964844</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>62.59186553955078</v>
+      </c>
+      <c r="C378" t="n">
+        <v>63.7599983215332</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>62.22029876708984</v>
+      </c>
+      <c r="C379" t="n">
+        <v>64.29000091552734</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>62.16005325317383</v>
+      </c>
+      <c r="C380" t="n">
+        <v>64.76999664306641</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>62.38719940185547</v>
+      </c>
+      <c r="C381" t="n">
+        <v>64.73999786376953</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>62.51581573486328</v>
+      </c>
+      <c r="C382" t="n">
+        <v>63.88999938964844</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>62.19784164428711</v>
+      </c>
+      <c r="C383" t="n">
+        <v>63.43999862670898</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>61.79167556762695</v>
+      </c>
+      <c r="C384" t="n">
+        <v>62.70000076293945</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>61.27184295654297</v>
+      </c>
+      <c r="C385" t="n">
+        <v>63.27999877929688</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>61.28850173950195</v>
+      </c>
+      <c r="C386" t="n">
+        <v>63.54999923706055</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>61.49996185302734</v>
+      </c>
+      <c r="C387" t="n">
+        <v>62.43000030517578</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>61.1163215637207</v>
+      </c>
+      <c r="C388" t="n">
+        <v>61.86999893188477</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>60.60411071777344</v>
+      </c>
+      <c r="C389" t="n">
+        <v>60.63999938964844</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>59.78599166870117</v>
+      </c>
+      <c r="C390" t="n">
+        <v>62.11999893188477</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>60.11333465576172</v>
+      </c>
+      <c r="C391" t="n">
+        <v>62.90999984741211</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>60.78704071044922</v>
+      </c>
+      <c r="C392" t="n">
+        <v>62.88999938964844</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>61.09343338012695</v>
+      </c>
+      <c r="C393" t="n">
+        <v>60.08000183105469</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>59.85470962524414</v>
+      </c>
+      <c r="C394" t="n">
+        <v>61.06000137329102</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.436323513742555</v>
+        <v>1.3710365392155</v>
       </c>
     </row>
   </sheetData>

--- a/NN_results/TFC_NN_results.xlsx
+++ b/NN_results/TFC_NN_results.xlsx
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36.17448425292969</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C2" t="n">
         <v>34.41999816894531</v>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.99123001098633</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C3" t="n">
         <v>33.06000137329102</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.53631210327148</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C4" t="n">
         <v>31.6299991607666</v>
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.1713981628418</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C5" t="n">
         <v>32.06000137329102</v>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.24098587036133</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C6" t="n">
         <v>31.35000038146973</v>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.8383674621582</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C7" t="n">
         <v>34.15000152587891</v>
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33.85121917724609</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C8" t="n">
         <v>32.34000015258789</v>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.04969024658203</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C9" t="n">
         <v>33.77000045776367</v>
@@ -539,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>33.7446174621582</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C10" t="n">
         <v>33.47000122070312</v>
@@ -550,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>33.80187225341797</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C11" t="n">
         <v>33.29000091552734</v>
@@ -561,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>33.60018157958984</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C12" t="n">
         <v>36.18999862670898</v>
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35.79264450073242</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C13" t="n">
         <v>39.5</v>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39.03353118896484</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C14" t="n">
         <v>38.15000152587891</v>
@@ -594,7 +594,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>38.67747116088867</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C15" t="n">
         <v>36.77999877929688</v>
@@ -605,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>37.22231292724609</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C16" t="n">
         <v>38.06000137329102</v>
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>37.84063339233398</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C17" t="n">
         <v>37.61000061035156</v>
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>37.79709243774414</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C18" t="n">
         <v>39.97000122070312</v>
@@ -638,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>39.55044174194336</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C19" t="n">
         <v>41.86999893188477</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41.58369827270508</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C20" t="n">
         <v>44.31000137329102</v>
@@ -660,7 +660,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.92324829101562</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C21" t="n">
         <v>46.36999893188477</v>
@@ -671,7 +671,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>46.04621505737305</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C22" t="n">
         <v>44.68000030517578</v>
@@ -682,7 +682,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45.25439071655273</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C23" t="n">
         <v>41.5099983215332</v>
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.37847518920898</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C24" t="n">
         <v>37.47999954223633</v>
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>38.38622283935547</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C25" t="n">
         <v>39.47000122070312</v>
@@ -715,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>38.87839126586914</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C26" t="n">
         <v>39.82999801635742</v>
@@ -726,7 +726,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>39.70418167114258</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C27" t="n">
         <v>41.06999969482422</v>
@@ -737,7 +737,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.83509826660156</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C28" t="n">
         <v>40.27999877929688</v>
@@ -748,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.51383972167969</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C29" t="n">
         <v>40.5</v>
@@ -759,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.48188400268555</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C30" t="n">
         <v>39.34000015258789</v>
@@ -770,7 +770,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39.61795425415039</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C31" t="n">
         <v>39.52999877929688</v>
@@ -781,7 +781,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>39.48777770996094</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C32" t="n">
         <v>40.03999710083008</v>
@@ -792,7 +792,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>39.93438339233398</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C33" t="n">
         <v>37.65999984741211</v>
@@ -803,7 +803,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>38.2261962890625</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C34" t="n">
         <v>38.54999923706055</v>
@@ -814,7 +814,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>38.34460830688477</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C35" t="n">
         <v>35.95000076293945</v>
@@ -825,7 +825,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>36.54409408569336</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C36" t="n">
         <v>36.7400016784668</v>
@@ -836,7 +836,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>36.58229827880859</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C37" t="n">
         <v>37.54999923706055</v>
@@ -847,7 +847,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>37.41428756713867</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C38" t="n">
         <v>36.40999984741211</v>
@@ -858,7 +858,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>36.74597930908203</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C39" t="n">
         <v>36.41999816894531</v>
@@ -869,7 +869,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>36.48933410644531</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C40" t="n">
         <v>36.68999862670898</v>
@@ -880,7 +880,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>36.70229721069336</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C41" t="n">
         <v>35.29999923706055</v>
@@ -891,7 +891,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>35.70209121704102</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C42" t="n">
         <v>35.31999969482422</v>
@@ -902,7 +902,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>35.409423828125</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C43" t="n">
         <v>33.61000061035156</v>
@@ -913,7 +913,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.1123161315918</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C44" t="n">
         <v>35.20000076293945</v>
@@ -924,7 +924,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.98567962646484</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C45" t="n">
         <v>35.61000061035156</v>
@@ -935,7 +935,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>35.67554473876953</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C46" t="n">
         <v>35.18000030517578</v>
@@ -946,7 +946,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>35.44366836547852</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C47" t="n">
         <v>36.93000030517578</v>
@@ -957,7 +957,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>36.69268798828125</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C48" t="n">
         <v>37.22000122070312</v>
@@ -968,7 +968,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>37.30517196655273</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C49" t="n">
         <v>36.29999923706055</v>
@@ -979,7 +979,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>36.64093017578125</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C50" t="n">
         <v>35.72000122070312</v>
@@ -990,7 +990,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>35.953857421875</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C51" t="n">
         <v>37.25</v>
@@ -1001,7 +1001,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>37.00955581665039</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C52" t="n">
         <v>37.16999816894531</v>
@@ -1012,7 +1012,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>37.30772399902344</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C53" t="n">
         <v>37.90000152587891</v>
@@ -1023,7 +1023,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>37.85697174072266</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C54" t="n">
         <v>37.7400016784668</v>
@@ -1034,7 +1034,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>37.87971115112305</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C55" t="n">
         <v>36.66999816894531</v>
@@ -1045,7 +1045,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>36.99923324584961</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C56" t="n">
         <v>36.86999893188477</v>
@@ -1056,7 +1056,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>36.89501190185547</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C57" t="n">
         <v>38.34000015258789</v>
@@ -1067,7 +1067,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>38.09621429443359</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C58" t="n">
         <v>37.2400016784668</v>
@@ -1078,7 +1078,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>37.58810424804688</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C59" t="n">
         <v>37.45999908447266</v>
@@ -1089,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>37.49374389648438</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C60" t="n">
         <v>37.77000045776367</v>
@@ -1100,7 +1100,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>37.77252578735352</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C61" t="n">
         <v>37.18000030517578</v>
@@ -1111,7 +1111,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>37.39321899414062</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C62" t="n">
         <v>37.65999984741211</v>
@@ -1122,7 +1122,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>37.62722015380859</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C63" t="n">
         <v>37.54999923706055</v>
@@ -1133,7 +1133,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>37.65153503417969</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C64" t="n">
         <v>39.06000137329102</v>
@@ -1144,7 +1144,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>38.81125259399414</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C65" t="n">
         <v>39.41999816894531</v>
@@ -1155,7 +1155,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39.44114685058594</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C66" t="n">
         <v>40.70000076293945</v>
@@ -1166,7 +1166,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>40.51739501953125</v>
+        <v>43.38389587402344</v>
       </c>
       <c r="C67" t="n">
         <v>40.81000518798828</v>
@@ -1177,7 +1177,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>40.88367462158203</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C68" t="n">
         <v>38.81999969482422</v>
@@ -1188,7 +1188,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>39.34687042236328</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C69" t="n">
         <v>39.5</v>
@@ -1199,7 +1199,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>39.35813140869141</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C70" t="n">
         <v>38.7400016784668</v>
@@ -1210,7 +1210,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>38.9272575378418</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C71" t="n">
         <v>37.90999984741211</v>
@@ -1221,7 +1221,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>38.12425994873047</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C72" t="n">
         <v>37.95000076293945</v>
@@ -1232,7 +1232,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>37.95812606811523</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C73" t="n">
         <v>37.20999908447266</v>
@@ -1243,7 +1243,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>37.40767669677734</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C74" t="n">
         <v>36.90999984741211</v>
@@ -1254,7 +1254,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>37.0190544128418</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C75" t="n">
         <v>38.65000152587891</v>
@@ -1265,7 +1265,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>38.31974029541016</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C76" t="n">
         <v>38.81999969482422</v>
@@ -1276,7 +1276,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>38.87241744995117</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C77" t="n">
         <v>37.86999893188477</v>
@@ -1287,7 +1287,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>38.16872406005859</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C78" t="n">
         <v>39.20999908447266</v>
@@ -1298,7 +1298,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>38.96469879150391</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C79" t="n">
         <v>39.59000015258789</v>
@@ -1309,7 +1309,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>39.57627487182617</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C80" t="n">
         <v>38.81000137329102</v>
@@ -1320,7 +1320,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>39.06234359741211</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C81" t="n">
         <v>39.16999816894531</v>
@@ -1331,7 +1331,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>39.13493728637695</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C82" t="n">
         <v>39.40999984741211</v>
@@ -1342,7 +1342,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>39.40051651000977</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C83" t="n">
         <v>38.61000061035156</v>
@@ -1353,7 +1353,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>38.84111022949219</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C84" t="n">
         <v>39.15999984741211</v>
@@ -1364,7 +1364,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>39.07263946533203</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C85" t="n">
         <v>37.90999984741211</v>
@@ -1375,7 +1375,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>38.22917556762695</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C86" t="n">
         <v>37.83000183105469</v>
@@ -1386,7 +1386,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>37.87799072265625</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C87" t="n">
         <v>37.20999908447266</v>
@@ -1397,7 +1397,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>37.37897491455078</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C88" t="n">
         <v>38.22999954223633</v>
@@ -1408,7 +1408,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>38.04885482788086</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C89" t="n">
         <v>39.7599983215332</v>
@@ -1419,7 +1419,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>39.49826812744141</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C90" t="n">
         <v>39.40999984741211</v>
@@ -1430,7 +1430,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>39.58876419067383</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C91" t="n">
         <v>40.24999618530273</v>
@@ -1441,7 +1441,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>40.13975143432617</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C92" t="n">
         <v>39.2599983215332</v>
@@ -1452,7 +1452,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>39.54536056518555</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C93" t="n">
         <v>39.15999984741211</v>
@@ -1463,7 +1463,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>39.22066497802734</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C94" t="n">
         <v>37.34000015258789</v>
@@ -1474,7 +1474,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>37.77228927612305</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C95" t="n">
         <v>36.25</v>
@@ -1485,7 +1485,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>36.50670623779297</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C96" t="n">
         <v>35.43000030517578</v>
@@ -1496,7 +1496,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>35.63633728027344</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C97" t="n">
         <v>35.47000122070312</v>
@@ -1507,7 +1507,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>35.52077484130859</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C98" t="n">
         <v>36.16999816894531</v>
@@ -1518,7 +1518,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>36.10750198364258</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C99" t="n">
         <v>37.45000076293945</v>
@@ -1529,7 +1529,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>37.28569030761719</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C100" t="n">
         <v>37.0099983215332</v>
@@ -1540,7 +1540,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>37.23167419433594</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C101" t="n">
         <v>38.04999923706055</v>
@@ -1551,7 +1551,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>37.92514038085938</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C102" t="n">
         <v>38.75</v>
@@ -1562,7 +1562,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>38.69697952270508</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C103" t="n">
         <v>39.97999954223633</v>
@@ -1573,7 +1573,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.81734085083008</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C104" t="n">
         <v>41.2400016784668</v>
@@ -1584,7 +1584,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>41.07360458374023</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C105" t="n">
         <v>40.81999969482422</v>
@@ -1595,7 +1595,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>41.02599334716797</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C106" t="n">
         <v>42.03000259399414</v>
@@ -1606,7 +1606,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>41.83081436157227</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C107" t="n">
         <v>43.06000137329102</v>
@@ -1617,7 +1617,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>42.89892959594727</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C108" t="n">
         <v>43.20999908447266</v>
@@ -1628,7 +1628,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>43.26546478271484</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C109" t="n">
         <v>43.45999526977539</v>
@@ -1639,7 +1639,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>43.47169494628906</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C110" t="n">
         <v>42.59999847412109</v>
@@ -1650,7 +1650,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>42.85119247436523</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C111" t="n">
         <v>42.23000335693359</v>
@@ -1661,7 +1661,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>42.33269500732422</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C112" t="n">
         <v>42.11000061035156</v>
@@ -1672,7 +1672,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>42.13193893432617</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C113" t="n">
         <v>41.65000152587891</v>
@@ -1683,7 +1683,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>41.75540542602539</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C114" t="n">
         <v>41.56999969482422</v>
@@ -1694,7 +1694,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>41.5849494934082</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C115" t="n">
         <v>42.09000015258789</v>
@@ -1705,7 +1705,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>41.97042846679688</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C116" t="n">
         <v>41.90000152587891</v>
@@ -1716,7 +1716,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>41.96297073364258</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C117" t="n">
         <v>43.45000076293945</v>
@@ -1727,7 +1727,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>43.11579895019531</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C118" t="n">
         <v>43.93999862670898</v>
@@ -1738,7 +1738,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>43.87461090087891</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C119" t="n">
         <v>43.03000259399414</v>
@@ -1749,7 +1749,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>43.308837890625</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C120" t="n">
         <v>41.72999954223633</v>
@@ -1760,7 +1760,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>42.05620956420898</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C121" t="n">
         <v>41.11999893188477</v>
@@ -1771,7 +1771,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>41.22876358032227</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C122" t="n">
         <v>41.85000228881836</v>
@@ -1782,7 +1782,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>41.64337539672852</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C123" t="n">
         <v>42.11999893188477</v>
@@ -1793,7 +1793,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>42.05947494506836</v>
+        <v>43.3838996887207</v>
       </c>
       <c r="C124" t="n">
         <v>43.47999954223633</v>
@@ -1804,7 +1804,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>43.19510650634766</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C125" t="n">
         <v>44.7599983215332</v>
@@ -1815,7 +1815,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>44.51214981079102</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C126" t="n">
         <v>42.68000030517578</v>
@@ -1826,7 +1826,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>43.25305938720703</v>
+        <v>43.38390731811523</v>
       </c>
       <c r="C127" t="n">
         <v>44.93000030517578</v>
@@ -1837,7 +1837,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>44.40369415283203</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C128" t="n">
         <v>42.9900016784668</v>
@@ -1848,7 +1848,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>43.47171020507812</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C129" t="n">
         <v>48.52000045776367</v>
@@ -1859,7 +1859,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>47.18404006958008</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C130" t="n">
         <v>49.04000091552734</v>
@@ -1870,7 +1870,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>48.917724609375</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C131" t="n">
         <v>48.82000350952148</v>
@@ -1881,7 +1881,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>48.96746826171875</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C132" t="n">
         <v>46.33000183105469</v>
@@ -1892,7 +1892,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>47.05799102783203</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C133" t="n">
         <v>47.18999862670898</v>
@@ -1903,7 +1903,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>46.93275451660156</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C134" t="n">
         <v>48.56999969482422</v>
@@ -1914,7 +1914,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>48.11357116699219</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C135" t="n">
         <v>48.16999816894531</v>
@@ -1925,7 +1925,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>48.24187088012695</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C136" t="n">
         <v>47.45000076293945</v>
@@ -1936,7 +1936,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>47.64037704467773</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C137" t="n">
         <v>46.90000152587891</v>
@@ -1947,7 +1947,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>47.01150512695312</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C138" t="n">
         <v>46.20999908447266</v>
@@ -1958,7 +1958,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>46.3382453918457</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C139" t="n">
         <v>46.97999954223633</v>
@@ -1969,7 +1969,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>46.7182502746582</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C140" t="n">
         <v>48.97000122070312</v>
@@ -1980,7 +1980,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>48.37889862060547</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C141" t="n">
         <v>48.5099983215332</v>
@@ -1991,7 +1991,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>48.5988883972168</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C142" t="n">
         <v>48.5</v>
@@ -2002,7 +2002,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>48.49519348144531</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C143" t="n">
         <v>46.41999816894531</v>
@@ -2013,7 +2013,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>46.95713043212891</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C144" t="n">
         <v>47.52000045776367</v>
@@ -2024,7 +2024,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>47.16951751708984</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C145" t="n">
         <v>47.56000137329102</v>
@@ -2035,7 +2035,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>47.45999145507812</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C146" t="n">
         <v>47.41000366210938</v>
@@ -2046,7 +2046,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>47.41316223144531</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C147" t="n">
         <v>48.23000335693359</v>
@@ -2057,7 +2057,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>47.96327209472656</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C148" t="n">
         <v>47.86000061035156</v>
@@ -2068,7 +2068,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>47.91054534912109</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C149" t="n">
         <v>47.70999908447266</v>
@@ -2079,7 +2079,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>47.71781158447266</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C150" t="n">
         <v>47.88000106811523</v>
@@ -2090,7 +2090,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>47.78031158447266</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C151" t="n">
         <v>47.95000076293945</v>
@@ -2101,7 +2101,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>47.8743896484375</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C152" t="n">
         <v>47.0099983215332</v>
@@ -2112,7 +2112,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>47.22087860107422</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C153" t="n">
         <v>45.90999984741211</v>
@@ -2123,7 +2123,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>46.16110992431641</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C154" t="n">
         <v>46.72000122070312</v>
@@ -2134,7 +2134,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>46.43841934204102</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C155" t="n">
         <v>47.23000335693359</v>
@@ -2145,7 +2145,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>47.03043746948242</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C156" t="n">
         <v>47.09999847412109</v>
@@ -2156,7 +2156,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>47.10703659057617</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C157" t="n">
         <v>45.90000152587891</v>
@@ -2167,7 +2167,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>46.19809722900391</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C158" t="n">
         <v>46.31999969482422</v>
@@ -2178,7 +2178,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>46.16914367675781</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C159" t="n">
         <v>46.03000259399414</v>
@@ -2189,7 +2189,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>46.05027008056641</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C160" t="n">
         <v>47.29000091552734</v>
@@ -2200,7 +2200,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>46.9289665222168</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C161" t="n">
         <v>46.9900016784668</v>
@@ -2211,7 +2211,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>47.04096221923828</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C162" t="n">
         <v>47.52999877929688</v>
@@ -2222,7 +2222,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>47.37643814086914</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C163" t="n">
         <v>46.72000122070312</v>
@@ -2233,7 +2233,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>46.90898513793945</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C164" t="n">
         <v>47.36999893188477</v>
@@ -2244,7 +2244,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>47.16925048828125</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C165" t="n">
         <v>47.93000030517578</v>
@@ -2255,7 +2255,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>47.72992324829102</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C166" t="n">
         <v>47.18000030517578</v>
@@ -2266,7 +2266,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>47.35579681396484</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C167" t="n">
         <v>47.5</v>
@@ -2277,7 +2277,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>47.38704299926758</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C168" t="n">
         <v>50</v>
@@ -2288,7 +2288,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>49.24699783325195</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C169" t="n">
         <v>51.4900016784668</v>
@@ -2299,7 +2299,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>50.95428085327148</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C170" t="n">
         <v>50.65000152587891</v>
@@ -2310,7 +2310,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>50.82040023803711</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C171" t="n">
         <v>50.93999862670898</v>
@@ -2321,7 +2321,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>50.78316116333008</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C172" t="n">
         <v>52.25</v>
@@ -2332,7 +2332,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>51.67624282836914</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C173" t="n">
         <v>52.08000183105469</v>
@@ -2343,7 +2343,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>51.918701171875</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C174" t="n">
         <v>53.13999938964844</v>
@@ -2354,7 +2354,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>52.60072708129883</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C175" t="n">
         <v>51.97000122070312</v>
@@ -2365,7 +2365,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>52.10097122192383</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C176" t="n">
         <v>52.15000152587891</v>
@@ -2376,7 +2376,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>51.91656494140625</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C177" t="n">
         <v>51.63000106811523</v>
@@ -2387,7 +2387,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>51.56314086914062</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C178" t="n">
         <v>51.06999969482422</v>
@@ -2398,7 +2398,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>51.05477142333984</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C179" t="n">
         <v>51.18000030517578</v>
@@ -2409,7 +2409,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>50.95735168457031</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C180" t="n">
         <v>51.04999923706055</v>
@@ -2420,7 +2420,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>50.89010620117188</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C181" t="n">
         <v>50.2400016784668</v>
@@ -2431,7 +2431,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>50.32086563110352</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C182" t="n">
         <v>48.38999938964844</v>
@@ -2442,7 +2442,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>48.81850051879883</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C183" t="n">
         <v>49.15000152587891</v>
@@ -2453,7 +2453,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>48.80885696411133</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C184" t="n">
         <v>47.97999954223633</v>
@@ -2464,7 +2464,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>48.15972900390625</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C185" t="n">
         <v>48.38000106811523</v>
@@ -2475,7 +2475,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>48.17816162109375</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C186" t="n">
         <v>50.20999908447266</v>
@@ -2486,7 +2486,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>49.56924438476562</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C187" t="n">
         <v>51.52000045776367</v>
@@ -2497,7 +2497,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>50.99041748046875</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C188" t="n">
         <v>53.36999893188477</v>
@@ -2508,7 +2508,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>52.61661148071289</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C189" t="n">
         <v>52.68999862670898</v>
@@ -2519,7 +2519,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>52.67238998413086</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C190" t="n">
         <v>52.97000122070312</v>
@@ -2530,7 +2530,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>52.69245910644531</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C191" t="n">
         <v>53.36999893188477</v>
@@ -2541,7 +2541,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>52.96022033691406</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C192" t="n">
         <v>53.70999908447266</v>
@@ -2552,7 +2552,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>53.28250122070312</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C193" t="n">
         <v>52.77999877929688</v>
@@ -2563,7 +2563,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>52.79223251342773</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C194" t="n">
         <v>54.0099983215332</v>
@@ -2574,7 +2574,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>53.32050323486328</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C195" t="n">
         <v>55.65000152587891</v>
@@ -2585,7 +2585,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>54.63335800170898</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C196" t="n">
         <v>55.65000152587891</v>
@@ -2596,7 +2596,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>55.1228141784668</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C197" t="n">
         <v>55.83000183105469</v>
@@ -2607,7 +2607,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>55.29030990600586</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C198" t="n">
         <v>57.58000564575195</v>
@@ -2618,7 +2618,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>56.33434295654297</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C199" t="n">
         <v>59.06999969482422</v>
@@ -2629,7 +2629,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>57.62046051025391</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C200" t="n">
         <v>58.72999954223633</v>
@@ -2640,7 +2640,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>57.90163803100586</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C201" t="n">
         <v>60.16999816894531</v>
@@ -2651,7 +2651,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>58.63679504394531</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C202" t="n">
         <v>58.63000106811523</v>
@@ -2662,7 +2662,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>58.16627502441406</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C203" t="n">
         <v>56.95999908447266</v>
@@ -2673,7 +2673,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>56.91208648681641</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C204" t="n">
         <v>58.80999755859375</v>
@@ -2684,7 +2684,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>57.34292984008789</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C205" t="n">
         <v>58.2599983215332</v>
@@ -2695,7 +2695,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>57.43399429321289</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C206" t="n">
         <v>58.4900016784668</v>
@@ -2706,7 +2706,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>57.53488159179688</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C207" t="n">
         <v>57.38000106811523</v>
@@ -2717,7 +2717,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>56.97081756591797</v>
+        <v>43.3839111328125</v>
       </c>
       <c r="C208" t="n">
         <v>58.72000122070312</v>
@@ -2728,7 +2728,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>57.40908432006836</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C209" t="n">
         <v>59.70999908447266</v>
@@ -2739,7 +2739,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>58.234619140625</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C210" t="n">
         <v>58.25</v>
@@ -2750,7 +2750,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>57.80421829223633</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C211" t="n">
         <v>58.80000305175781</v>
@@ -2761,7 +2761,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>57.76700210571289</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C212" t="n">
         <v>58.90999984741211</v>
@@ -2772,7 +2772,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>57.87256622314453</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C213" t="n">
         <v>59.91999816894531</v>
@@ -2783,7 +2783,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>58.45970916748047</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C214" t="n">
         <v>59.47999954223633</v>
@@ -2794,7 +2794,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>58.51089477539062</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C215" t="n">
         <v>58.2400016784668</v>
@@ -2805,7 +2805,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>57.80405807495117</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C216" t="n">
         <v>58.58000564575195</v>
@@ -2816,7 +2816,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>57.61001586914062</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C217" t="n">
         <v>59.33000183105469</v>
@@ -2827,7 +2827,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>58.01439666748047</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C218" t="n">
         <v>58.54000091552734</v>
@@ -2838,7 +2838,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>57.81987380981445</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C219" t="n">
         <v>57.47000122070312</v>
@@ -2849,7 +2849,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>57.08373260498047</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C220" t="n">
         <v>56.08000183105469</v>
@@ -2860,7 +2860,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>55.95634078979492</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C221" t="n">
         <v>55.82000350952148</v>
@@ -2871,7 +2871,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>55.33953475952148</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C222" t="n">
         <v>57.4900016784668</v>
@@ -2882,7 +2882,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>56.17011642456055</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C223" t="n">
         <v>59.34999847412109</v>
@@ -2893,7 +2893,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>57.67248916625977</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C224" t="n">
         <v>57.31000137329102</v>
@@ -2904,7 +2904,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>57.15478134155273</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C225" t="n">
         <v>58.77999877929688</v>
@@ -2915,7 +2915,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>57.51203918457031</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C226" t="n">
         <v>58.31999969482422</v>
@@ -2926,7 +2926,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>57.52034378051758</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C227" t="n">
         <v>59.04999923706055</v>
@@ -2937,7 +2937,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>57.8618049621582</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C228" t="n">
         <v>59.15000152587891</v>
@@ -2948,7 +2948,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>58.08541107177734</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C229" t="n">
         <v>59.13000106811523</v>
@@ -2959,7 +2959,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>58.13922500610352</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C230" t="n">
         <v>59.43000030517578</v>
@@ -2970,7 +2970,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>58.29426574707031</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C231" t="n">
         <v>59.25</v>
@@ -2981,7 +2981,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>58.27158737182617</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C232" t="n">
         <v>60.01999664306641</v>
@@ -2992,7 +2992,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>58.63796615600586</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C233" t="n">
         <v>60.18999862670898</v>
@@ -3003,7 +3003,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>58.9155158996582</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C234" t="n">
         <v>58.97999954223633</v>
@@ -3014,7 +3014,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>58.38457107543945</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C235" t="n">
         <v>59.68999862670898</v>
@@ -3025,7 +3025,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>58.43412399291992</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C236" t="n">
         <v>57.22000122070312</v>
@@ -3036,7 +3036,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>57.22875595092773</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C237" t="n">
         <v>57.84000015258789</v>
@@ -3047,7 +3047,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>56.91916656494141</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C238" t="n">
         <v>57.40000534057617</v>
@@ -3058,7 +3058,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>56.69901657104492</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C239" t="n">
         <v>55.75</v>
@@ -3069,7 +3069,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>55.68923568725586</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C240" t="n">
         <v>56.77000045776367</v>
@@ -3080,7 +3080,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>55.81025695800781</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C241" t="n">
         <v>55.86000061035156</v>
@@ -3091,7 +3091,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>55.48369216918945</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C242" t="n">
         <v>57.62000274658203</v>
@@ -3102,7 +3102,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>56.32661819458008</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C243" t="n">
         <v>57.72000122070312</v>
@@ -3113,7 +3113,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>56.82326889038086</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C244" t="n">
         <v>58.29999923706055</v>
@@ -3124,7 +3124,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>57.27036666870117</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C245" t="n">
         <v>58.93999862670898</v>
@@ -3135,7 +3135,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>57.77570724487305</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C246" t="n">
         <v>59.93000030517578</v>
@@ -3146,7 +3146,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>58.48989868164062</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C247" t="n">
         <v>59.31000137329102</v>
@@ -3157,7 +3157,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>58.45502853393555</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C248" t="n">
         <v>59.18999862670898</v>
@@ -3168,7 +3168,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>58.27620697021484</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C249" t="n">
         <v>60.00000381469727</v>
@@ -3179,7 +3179,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>58.61154556274414</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C250" t="n">
         <v>60.59999847412109</v>
@@ -3190,7 +3190,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>59.11226272583008</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C251" t="n">
         <v>61.04999923706055</v>
@@ -3201,7 +3201,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>59.54520034790039</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C252" t="n">
         <v>61.56999969482422</v>
@@ -3212,7 +3212,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>59.95708847045898</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C253" t="n">
         <v>60.88999938964844</v>
@@ -3223,7 +3223,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>59.78548431396484</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C254" t="n">
         <v>60.4900016784668</v>
@@ -3234,7 +3234,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>59.43500518798828</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C255" t="n">
         <v>59.61000442504883</v>
@@ -3245,7 +3245,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>58.82668304443359</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C256" t="n">
         <v>60.56999969482422</v>
@@ -3256,7 +3256,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>59.03374099731445</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C257" t="n">
         <v>61.63999938964844</v>
@@ -3267,7 +3267,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>59.76245880126953</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C258" t="n">
         <v>62.02000045776367</v>
@@ -3278,7 +3278,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>60.29278945922852</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C259" t="n">
         <v>61.18999862670898</v>
@@ -3289,7 +3289,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>60.07919311523438</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C260" t="n">
         <v>60.3800048828125</v>
@@ -3300,7 +3300,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>59.4924201965332</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C261" t="n">
         <v>60.2599983215332</v>
@@ -3311,7 +3311,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>59.1392707824707</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C262" t="n">
         <v>60.88000106811523</v>
@@ -3322,7 +3322,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>59.34400177001953</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C263" t="n">
         <v>61.21000289916992</v>
@@ -3333,7 +3333,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>59.66463470458984</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C264" t="n">
         <v>60.06000137329102</v>
@@ -3344,7 +3344,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>59.23604965209961</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C265" t="n">
         <v>60.62000274658203</v>
@@ -3355,7 +3355,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>59.23872756958008</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C266" t="n">
         <v>62.13999938964844</v>
@@ -3366,7 +3366,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>60.0527458190918</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C267" t="n">
         <v>61.77999877929688</v>
@@ -3377,7 +3377,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>60.30456161499023</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C268" t="n">
         <v>61.5</v>
@@ -3388,7 +3388,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>60.19261169433594</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C269" t="n">
         <v>60.77999877929688</v>
@@ -3399,7 +3399,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>59.7496452331543</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C270" t="n">
         <v>60.80000305175781</v>
@@ -3410,7 +3410,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>59.52923583984375</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C271" t="n">
         <v>60.18999862670898</v>
@@ -3421,7 +3421,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>59.17133331298828</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C272" t="n">
         <v>60.06000137329102</v>
@@ -3432,7 +3432,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>58.94169616699219</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C273" t="n">
         <v>59.83000183105469</v>
@@ -3443,7 +3443,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>58.75476837158203</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C274" t="n">
         <v>58.45000076293945</v>
@@ -3454,7 +3454,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>57.97237014770508</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C275" t="n">
         <v>57.83000183105469</v>
@@ -3465,7 +3465,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>57.24966049194336</v>
+        <v>43.38393402099609</v>
       </c>
       <c r="C276" t="n">
         <v>57.99000549316406</v>
@@ -3476,7 +3476,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>57.07876586914062</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C277" t="n">
         <v>56.68999862670898</v>
@@ -3487,7 +3487,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>56.3721809387207</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C278" t="n">
         <v>57.21000289916992</v>
@@ -3498,7 +3498,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>56.33399200439453</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C279" t="n">
         <v>57.80000305175781</v>
@@ -3509,7 +3509,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>56.75087738037109</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C280" t="n">
         <v>54.33000183105469</v>
@@ -3520,7 +3520,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>54.9659538269043</v>
+        <v>43.38393402099609</v>
       </c>
       <c r="C281" t="n">
         <v>52.80999755859375</v>
@@ -3531,7 +3531,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>53.0825080871582</v>
+        <v>43.38393402099609</v>
       </c>
       <c r="C282" t="n">
         <v>54.5</v>
@@ -3542,7 +3542,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>53.50798416137695</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C283" t="n">
         <v>54.36000061035156</v>
@@ -3553,7 +3553,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>53.85658645629883</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C284" t="n">
         <v>54.63000106811523</v>
@@ -3564,7 +3564,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>54.1094970703125</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C285" t="n">
         <v>55.31999969482422</v>
@@ -3575,7 +3575,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>54.61227798461914</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C286" t="n">
         <v>56.13000106811523</v>
@@ -3586,7 +3586,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>55.29683303833008</v>
+        <v>43.38393402099609</v>
       </c>
       <c r="C287" t="n">
         <v>55.21000289916992</v>
@@ -3597,7 +3597,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>54.99702072143555</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C288" t="n">
         <v>55.29999923706055</v>
@@ -3608,7 +3608,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>54.8255500793457</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C289" t="n">
         <v>55.5</v>
@@ -3619,7 +3619,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>54.91068649291992</v>
+        <v>43.38393402099609</v>
       </c>
       <c r="C290" t="n">
         <v>56.29999923706055</v>
@@ -3630,7 +3630,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>55.44456481933594</v>
+        <v>43.38393402099609</v>
       </c>
       <c r="C291" t="n">
         <v>56.03000259399414</v>
@@ -3641,7 +3641,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>55.51702499389648</v>
+        <v>43.38393402099609</v>
       </c>
       <c r="C292" t="n">
         <v>54.42000198364258</v>
@@ -3652,7 +3652,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>54.52398681640625</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C293" t="n">
         <v>53.68000030517578</v>
@@ -3663,7 +3663,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>53.5898551940918</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C294" t="n">
         <v>52.97999954223633</v>
@@ -3674,7 +3674,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>52.85245895385742</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C295" t="n">
         <v>55.21000289916992</v>
@@ -3685,7 +3685,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>54.04502105712891</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C296" t="n">
         <v>55.59999847412109</v>
@@ -3696,7 +3696,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>54.8845100402832</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C297" t="n">
         <v>54.70999908447266</v>
@@ -3707,7 +3707,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>54.56507110595703</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C298" t="n">
         <v>54.42999649047852</v>
@@ -3718,7 +3718,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>54.15314483642578</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C299" t="n">
         <v>55.86000061035156</v>
@@ -3729,7 +3729,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>54.88319396972656</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C300" t="n">
         <v>54.38999938964844</v>
@@ -3740,7 +3740,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>54.37171936035156</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C301" t="n">
         <v>52.18000030517578</v>
@@ -3751,7 +3751,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>52.65967559814453</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C302" t="n">
         <v>54.06999969482422</v>
@@ -3762,7 +3762,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>53.14651870727539</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C303" t="n">
         <v>55.27999877929688</v>
@@ -3773,7 +3773,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>54.34190368652344</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C304" t="n">
         <v>54.33000183105469</v>
@@ -3784,7 +3784,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>54.19402694702148</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C305" t="n">
         <v>54.45999908447266</v>
@@ -3795,7 +3795,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>54.06698989868164</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C306" t="n">
         <v>54.90000152587891</v>
@@ -3806,7 +3806,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>54.31039810180664</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C307" t="n">
         <v>54.95000076293945</v>
@@ -3817,7 +3817,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>54.4628791809082</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C308" t="n">
         <v>55.08000183105469</v>
@@ -3828,7 +3828,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>54.57709121704102</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C309" t="n">
         <v>55.31999969482422</v>
@@ -3839,7 +3839,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>54.75617599487305</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C310" t="n">
         <v>54.42999649047852</v>
@@ -3850,7 +3850,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>54.28348159790039</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C311" t="n">
         <v>54.13999938964844</v>
@@ -3861,7 +3861,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>53.86299514770508</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C312" t="n">
         <v>55.31000137329102</v>
@@ -3872,7 +3872,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>54.45623016357422</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C313" t="n">
         <v>54.59000015258789</v>
@@ -3883,7 +3883,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>54.33163070678711</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C314" t="n">
         <v>55.54999923706055</v>
@@ -3894,7 +3894,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>54.77967071533203</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C315" t="n">
         <v>56.59999847412109</v>
@@ -3905,7 +3905,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>55.62958526611328</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C316" t="n">
         <v>56.72000122070312</v>
@@ -3916,7 +3916,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>56.02324295043945</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C317" t="n">
         <v>57.95999908447266</v>
@@ -3927,7 +3927,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>56.80706787109375</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C318" t="n">
         <v>58.86000061035156</v>
@@ -3938,7 +3938,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>57.62394714355469</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C319" t="n">
         <v>58.5099983215332</v>
@@ -3949,7 +3949,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>57.72340774536133</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C320" t="n">
         <v>57.38000106811523</v>
@@ -3960,7 +3960,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>57.04988098144531</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C321" t="n">
         <v>57.06999969482422</v>
@@ -3971,7 +3971,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>56.52011489868164</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C322" t="n">
         <v>56.18999862670898</v>
@@ -3982,7 +3982,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>55.84819412231445</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C323" t="n">
         <v>55.56000137329102</v>
@@ -3993,7 +3993,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>55.21770858764648</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C324" t="n">
         <v>55.04000091552734</v>
@@ -4004,7 +4004,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>54.69509887695312</v>
+        <v>43.38391494750977</v>
       </c>
       <c r="C325" t="n">
         <v>55.58000564575195</v>
@@ -4015,7 +4015,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>54.85723876953125</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C326" t="n">
         <v>56.08000183105469</v>
@@ -4026,7 +4026,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>55.29852676391602</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C327" t="n">
         <v>56.70999908447266</v>
@@ -4037,7 +4037,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>55.84760665893555</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C328" t="n">
         <v>57.56000137329102</v>
@@ -4048,7 +4048,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>56.53573608398438</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C329" t="n">
         <v>56.97999954223633</v>
@@ -4059,7 +4059,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>56.46198272705078</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C330" t="n">
         <v>57.97000122070312</v>
@@ -4070,7 +4070,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>56.8953742980957</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C331" t="n">
         <v>56.79000473022461</v>
@@ -4081,7 +4081,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>56.45638275146484</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C332" t="n">
         <v>57.06000137329102</v>
@@ -4092,7 +4092,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>56.33008575439453</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C333" t="n">
         <v>56.22000122070312</v>
@@ -4103,7 +4103,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>55.85140609741211</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C334" t="n">
         <v>56.59999847412109</v>
@@ -4114,7 +4114,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>55.85084915161133</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C335" t="n">
         <v>56.45000076293945</v>
@@ -4125,7 +4125,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>55.8296012878418</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C336" t="n">
         <v>56.01999664306641</v>
@@ -4136,7 +4136,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>55.56627655029297</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C337" t="n">
         <v>55.63999938964844</v>
@@ -4147,7 +4147,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>55.22140884399414</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C338" t="n">
         <v>55.72999954223633</v>
@@ -4158,7 +4158,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>55.1478271484375</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C339" t="n">
         <v>55.20000457763672</v>
@@ -4169,7 +4169,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>54.84315490722656</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C340" t="n">
         <v>56.22999572753906</v>
@@ -4180,7 +4180,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>55.32361602783203</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C341" t="n">
         <v>54.63000106811523</v>
@@ -4191,7 +4191,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>54.63293838500977</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C342" t="n">
         <v>55.58000564575195</v>
@@ -4202,7 +4202,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>54.81564331054688</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C343" t="n">
         <v>55.27999877929688</v>
@@ -4213,7 +4213,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>54.81840133666992</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C344" t="n">
         <v>55.33000183105469</v>
@@ -4224,7 +4224,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>54.81936264038086</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C345" t="n">
         <v>53.68000030517578</v>
@@ -4235,7 +4235,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>53.81891250610352</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C346" t="n">
         <v>53.66999816894531</v>
@@ -4246,7 +4246,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>53.34544372558594</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C347" t="n">
         <v>54.7400016784668</v>
@@ -4257,7 +4257,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>53.93791198730469</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C348" t="n">
         <v>57.09000015258789</v>
@@ -4268,7 +4268,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>55.67611694335938</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C349" t="n">
         <v>58.00000381469727</v>
@@ -4279,7 +4279,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>56.87680435180664</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C350" t="n">
         <v>60.15000152587891</v>
@@ -4290,7 +4290,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>58.39128112792969</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C351" t="n">
         <v>59.18999862670898</v>
@@ -4301,7 +4301,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>58.46249389648438</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C352" t="n">
         <v>59.42000198364258</v>
@@ -4312,7 +4312,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>58.42161178588867</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C353" t="n">
         <v>58.65000152587891</v>
@@ -4323,7 +4323,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>57.98819732666016</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C354" t="n">
         <v>60.22000122070312</v>
@@ -4334,7 +4334,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>58.58740234375</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C355" t="n">
         <v>60.04999923706055</v>
@@ -4345,7 +4345,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>58.86118316650391</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C356" t="n">
         <v>60.27999877929688</v>
@@ -4356,7 +4356,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>59.03149795532227</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C357" t="n">
         <v>60.13000106811523</v>
@@ -4367,7 +4367,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>59.00818634033203</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C358" t="n">
         <v>60.52000045776367</v>
@@ -4378,7 +4378,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>59.16815948486328</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C359" t="n">
         <v>60.83000183105469</v>
@@ -4389,7 +4389,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>59.40980911254883</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C360" t="n">
         <v>60.22999954223633</v>
@@ -4400,7 +4400,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>59.21366882324219</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C361" t="n">
         <v>60.22999954223633</v>
@@ -4411,7 +4411,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>59.07305526733398</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C362" t="n">
         <v>59.91999816894531</v>
@@ -4422,7 +4422,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>58.87006759643555</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C363" t="n">
         <v>60.63999938964844</v>
@@ -4433,7 +4433,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>59.14558410644531</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C364" t="n">
         <v>61.34000015258789</v>
@@ -4444,7 +4444,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>59.66651153564453</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C365" t="n">
         <v>61.7599983215332</v>
@@ -4455,7 +4455,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>60.1036376953125</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C366" t="n">
         <v>62.56999969482422</v>
@@ -4466,7 +4466,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>60.64871978759766</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C367" t="n">
         <v>63.88000106811523</v>
@@ -4477,7 +4477,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>61.48105239868164</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C368" t="n">
         <v>63.58000564575195</v>
@@ -4488,7 +4488,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>61.72527313232422</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C369" t="n">
         <v>64.44000244140625</v>
@@ -4499,7 +4499,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>62.11807632446289</v>
+        <v>43.38391876220703</v>
       </c>
       <c r="C370" t="n">
         <v>64.56999969482422</v>
@@ -4510,7 +4510,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>62.36223602294922</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C371" t="n">
         <v>64.44000244140625</v>
@@ -4521,7 +4521,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>62.38819885253906</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C372" t="n">
         <v>63.01000213623047</v>
@@ -4532,7 +4532,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>61.74991226196289</v>
+        <v>43.38392639160156</v>
       </c>
       <c r="C373" t="n">
         <v>63.88999938964844</v>
@@ -4543,7 +4543,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>61.74453353881836</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C374" t="n">
         <v>63.47000122070312</v>
@@ -4554,7 +4554,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>61.65824890136719</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C375" t="n">
         <v>64.43000030517578</v>
@@ -4565,7 +4565,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>62.02449035644531</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C376" t="n">
         <v>64.30000305175781</v>
@@ -4576,7 +4576,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>62.19362258911133</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C377" t="n">
         <v>65.13999938964844</v>
@@ -4587,7 +4587,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>62.59186553955078</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C378" t="n">
         <v>63.7599983215332</v>
@@ -4598,7 +4598,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>62.22029876708984</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C379" t="n">
         <v>64.29000091552734</v>
@@ -4609,7 +4609,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>62.16005325317383</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C380" t="n">
         <v>64.76999664306641</v>
@@ -4620,7 +4620,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>62.38719940185547</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C381" t="n">
         <v>64.73999786376953</v>
@@ -4631,7 +4631,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>62.51581573486328</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C382" t="n">
         <v>63.88999938964844</v>
@@ -4642,7 +4642,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>62.19784164428711</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C383" t="n">
         <v>63.43999862670898</v>
@@ -4653,7 +4653,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>61.79167556762695</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C384" t="n">
         <v>62.70000076293945</v>
@@ -4664,7 +4664,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>61.27184295654297</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C385" t="n">
         <v>63.27999877929688</v>
@@ -4675,7 +4675,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>61.28850173950195</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C386" t="n">
         <v>63.54999923706055</v>
@@ -4686,7 +4686,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>61.49996185302734</v>
+        <v>43.38393020629883</v>
       </c>
       <c r="C387" t="n">
         <v>62.43000030517578</v>
@@ -4697,7 +4697,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>61.1163215637207</v>
+        <v>43.38393402099609</v>
       </c>
       <c r="C388" t="n">
         <v>61.86999893188477</v>
@@ -4708,7 +4708,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>60.60411071777344</v>
+        <v>43.38393402099609</v>
       </c>
       <c r="C389" t="n">
         <v>60.63999938964844</v>
@@ -4719,7 +4719,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>59.78599166870117</v>
+        <v>43.38393783569336</v>
       </c>
       <c r="C390" t="n">
         <v>62.11999893188477</v>
@@ -4730,7 +4730,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>60.11333465576172</v>
+        <v>43.38394165039062</v>
       </c>
       <c r="C391" t="n">
         <v>62.90999984741211</v>
@@ -4741,7 +4741,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>60.78704071044922</v>
+        <v>43.38394165039062</v>
       </c>
       <c r="C392" t="n">
         <v>62.88999938964844</v>
@@ -4752,7 +4752,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>61.09343338012695</v>
+        <v>43.38394165039062</v>
       </c>
       <c r="C393" t="n">
         <v>60.08000183105469</v>
@@ -4763,7 +4763,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>59.85470962524414</v>
+        <v>43.38394927978516</v>
       </c>
       <c r="C394" t="n">
         <v>61.06000137329102</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.3710365392155</v>
+        <v>11.70831566715378</v>
       </c>
     </row>
   </sheetData>
